--- a/SKRIPSI_BUNDA/Data_analisis_laporan_keuangan_financial_distress.xlsx
+++ b/SKRIPSI_BUNDA/Data_analisis_laporan_keuangan_financial_distress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DJPB\Documents\kuliah\SKRIPSI_BUNDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8BD66C-2BFE-4EE5-AEA2-FFF519F5428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B23F8A-8948-41CA-AF8A-188DF08C8C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{076B0313-8333-46D6-A3E7-BBFF880F435B}"/>
   </bookViews>
@@ -1166,7 +1166,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1175,17 +1178,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1504,9 +1504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25479A33-03E6-4AD4-B904-343014EDB42B}">
   <dimension ref="A1:AU118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT34" sqref="AT34"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,9 +1660,9 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="64" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1759,9 +1759,9 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1856,9 +1856,9 @@
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1952,9 +1952,9 @@
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
@@ -2048,9 +2048,9 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="63"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
@@ -2144,9 +2144,9 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="64" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -2243,9 +2243,9 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="63"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
@@ -2340,9 +2340,9 @@
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="63"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
@@ -2437,9 +2437,9 @@
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2534,9 +2534,9 @@
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="64"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="6" t="s">
         <v>1</v>
       </c>
@@ -2631,9 +2631,9 @@
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="64"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="66" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -2730,9 +2730,9 @@
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="61"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
@@ -2827,9 +2827,9 @@
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="64"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="61"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="6" t="s">
         <v>5</v>
       </c>
@@ -2924,9 +2924,9 @@
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="61"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="6" t="s">
         <v>2</v>
       </c>
@@ -3021,9 +3021,9 @@
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="64"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="6" t="s">
         <v>1</v>
       </c>
@@ -3118,9 +3118,9 @@
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="64" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -3218,9 +3218,9 @@
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="64"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="63"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
@@ -3312,9 +3312,9 @@
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="63"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="6" t="s">
         <v>5</v>
       </c>
@@ -3406,9 +3406,9 @@
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="64"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="63"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="6" t="s">
         <v>2</v>
       </c>
@@ -3496,9 +3496,9 @@
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="64"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="63"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="6" t="s">
         <v>1</v>
       </c>
@@ -3586,9 +3586,9 @@
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="64"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="66" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -3675,9 +3675,9 @@
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="61"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="6" t="s">
         <v>4</v>
       </c>
@@ -3762,9 +3762,9 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="64"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="61"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="6" t="s">
         <v>5</v>
       </c>
@@ -3849,9 +3849,9 @@
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="61"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="6" t="s">
         <v>2</v>
       </c>
@@ -3936,9 +3936,9 @@
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="61"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="6" t="s">
         <v>1</v>
       </c>
@@ -4023,9 +4023,9 @@
       <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="66" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -4119,9 +4119,9 @@
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="6" t="s">
         <v>4</v>
       </c>
@@ -4213,9 +4213,9 @@
       <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="61"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="6" t="s">
         <v>5</v>
       </c>
@@ -4307,9 +4307,9 @@
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="61"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="6" t="s">
         <v>2</v>
       </c>
@@ -4401,9 +4401,9 @@
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="6" t="s">
         <v>1</v>
       </c>
@@ -4612,8 +4612,8 @@
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="65" t="s">
         <v>70</v>
       </c>
@@ -4756,7 +4756,7 @@
         <f t="shared" ref="AR34:AR65" si="25">AM34+AN34+AO34+AP34+AQ34</f>
         <v>1.7693591867582001</v>
       </c>
-      <c r="AS34" s="67" t="s">
+      <c r="AS34" s="62" t="s">
         <v>70</v>
       </c>
       <c r="AT34" s="8" t="str">
@@ -4771,8 +4771,8 @@
       <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="65"/>
       <c r="E35" s="6" t="s">
         <v>4</v>
@@ -4845,7 +4845,7 @@
         <v>1.0005526474943172</v>
       </c>
       <c r="Y35" s="19">
-        <f t="shared" ref="Y35:Y93" si="31">(F35-H35)/(F35+G35)</f>
+        <f t="shared" ref="Y35:Y98" si="31">(F35-H35)/(F35+G35)</f>
         <v>4.8556998180936846E-2</v>
       </c>
       <c r="Z35" s="19">
@@ -4913,7 +4913,7 @@
         <f t="shared" si="25"/>
         <v>1.9343096593998594</v>
       </c>
-      <c r="AS35" s="67"/>
+      <c r="AS35" s="62"/>
       <c r="AT35" s="8" t="str">
         <f>IF(AR35&lt;1.8,"financial distress",IF(AR35&gt;2.9,"safe","grey area"))</f>
         <v>grey area</v>
@@ -4926,8 +4926,8 @@
       <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="65"/>
       <c r="E36" s="6" t="s">
         <v>5</v>
@@ -5068,7 +5068,7 @@
         <f t="shared" si="25"/>
         <v>2.0713536008730222</v>
       </c>
-      <c r="AS36" s="67"/>
+      <c r="AS36" s="62"/>
       <c r="AT36" s="8" t="str">
         <f t="shared" ref="AT36:AT114" si="36">IF(AR36&lt;1.8,"financial distress",IF(AR36&gt;2.9,"safe","grey area"))</f>
         <v>grey area</v>
@@ -5081,8 +5081,8 @@
       <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="65"/>
       <c r="E37" s="6" t="s">
         <v>2</v>
@@ -5223,7 +5223,7 @@
         <f t="shared" si="25"/>
         <v>1.539690758255583</v>
       </c>
-      <c r="AS37" s="67"/>
+      <c r="AS37" s="62"/>
       <c r="AT37" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -5236,8 +5236,8 @@
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="65"/>
       <c r="E38" s="6" t="s">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <f t="shared" si="25"/>
         <v>2.6253063589828654</v>
       </c>
-      <c r="AS38" s="67"/>
+      <c r="AS38" s="62"/>
       <c r="AT38" s="8" t="str">
         <f t="shared" si="36"/>
         <v>grey area</v>
@@ -5391,9 +5391,9 @@
       <c r="A39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="63" t="s">
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="64" t="s">
         <v>71</v>
       </c>
       <c r="E39" s="6" t="s">
@@ -5535,7 +5535,7 @@
         <f t="shared" si="25"/>
         <v>0.30323174633621192</v>
       </c>
-      <c r="AS39" s="66" t="s">
+      <c r="AS39" s="61" t="s">
         <v>71</v>
       </c>
       <c r="AT39" s="8" t="str">
@@ -5550,9 +5550,9 @@
       <c r="A40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="6" t="s">
         <v>4</v>
       </c>
@@ -5692,7 +5692,7 @@
         <f t="shared" si="25"/>
         <v>0.17626389142418833</v>
       </c>
-      <c r="AS40" s="66"/>
+      <c r="AS40" s="61"/>
       <c r="AT40" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -5705,9 +5705,9 @@
       <c r="A41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="6" t="s">
         <v>5</v>
       </c>
@@ -5847,7 +5847,7 @@
         <f t="shared" si="25"/>
         <v>0.122981791355113</v>
       </c>
-      <c r="AS41" s="66"/>
+      <c r="AS41" s="61"/>
       <c r="AT41" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -5860,9 +5860,9 @@
       <c r="A42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="6" t="s">
         <v>2</v>
       </c>
@@ -6002,7 +6002,7 @@
         <f t="shared" si="25"/>
         <v>-1.509065046782367</v>
       </c>
-      <c r="AS42" s="66"/>
+      <c r="AS42" s="61"/>
       <c r="AT42" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -6015,9 +6015,9 @@
       <c r="A43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="6" t="s">
         <v>1</v>
       </c>
@@ -6157,7 +6157,7 @@
         <f t="shared" si="25"/>
         <v>-0.1434724237371941</v>
       </c>
-      <c r="AS43" s="66"/>
+      <c r="AS43" s="61"/>
       <c r="AT43" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -6170,9 +6170,9 @@
       <c r="A44" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="66" t="s">
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="61" t="s">
         <v>72</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -6311,7 +6311,7 @@
         <f t="shared" si="25"/>
         <v>1.7176161325892432</v>
       </c>
-      <c r="AS44" s="66" t="s">
+      <c r="AS44" s="61" t="s">
         <v>72</v>
       </c>
       <c r="AT44" s="8" t="str">
@@ -6326,9 +6326,9 @@
       <c r="A45" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="66"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="6" t="s">
         <v>4</v>
       </c>
@@ -6465,7 +6465,7 @@
         <f t="shared" si="25"/>
         <v>1.1775366925724344</v>
       </c>
-      <c r="AS45" s="66"/>
+      <c r="AS45" s="61"/>
       <c r="AT45" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -6478,9 +6478,9 @@
       <c r="A46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="66"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="6" t="s">
         <v>5</v>
       </c>
@@ -6617,7 +6617,7 @@
         <f t="shared" si="25"/>
         <v>1.2029343446184628</v>
       </c>
-      <c r="AS46" s="66"/>
+      <c r="AS46" s="61"/>
       <c r="AT46" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -6630,9 +6630,9 @@
       <c r="A47" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="66"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="6" t="s">
         <v>2</v>
       </c>
@@ -6769,7 +6769,7 @@
         <f t="shared" si="25"/>
         <v>0.80651228404925712</v>
       </c>
-      <c r="AS47" s="66"/>
+      <c r="AS47" s="61"/>
       <c r="AT47" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -6782,9 +6782,9 @@
       <c r="A48" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="66"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="6" t="s">
         <v>1</v>
       </c>
@@ -6921,7 +6921,7 @@
         <f t="shared" si="25"/>
         <v>0.71679693736715833</v>
       </c>
-      <c r="AS48" s="66"/>
+      <c r="AS48" s="61"/>
       <c r="AT48" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -6934,9 +6934,9 @@
       <c r="A49" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="61" t="s">
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="66" t="s">
         <v>73</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -7075,7 +7075,7 @@
         <f t="shared" si="25"/>
         <v>2.7964359058257129</v>
       </c>
-      <c r="AS49" s="66" t="s">
+      <c r="AS49" s="61" t="s">
         <v>73</v>
       </c>
       <c r="AT49" s="8" t="str">
@@ -7090,9 +7090,9 @@
       <c r="A50" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="61"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="66"/>
       <c r="E50" s="6" t="s">
         <v>4</v>
       </c>
@@ -7229,7 +7229,7 @@
         <f t="shared" si="25"/>
         <v>2.127735102001425</v>
       </c>
-      <c r="AS50" s="66"/>
+      <c r="AS50" s="61"/>
       <c r="AT50" s="8" t="str">
         <f t="shared" si="36"/>
         <v>grey area</v>
@@ -7242,9 +7242,9 @@
       <c r="A51" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="61"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="66"/>
       <c r="E51" s="6" t="s">
         <v>5</v>
       </c>
@@ -7381,7 +7381,7 @@
         <f t="shared" si="25"/>
         <v>1.3816330051937817</v>
       </c>
-      <c r="AS51" s="66"/>
+      <c r="AS51" s="61"/>
       <c r="AT51" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -7394,9 +7394,9 @@
       <c r="A52" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="61"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="66"/>
       <c r="E52" s="6" t="s">
         <v>2</v>
       </c>
@@ -7533,7 +7533,7 @@
         <f t="shared" si="25"/>
         <v>1.0835683593860299</v>
       </c>
-      <c r="AS52" s="66"/>
+      <c r="AS52" s="61"/>
       <c r="AT52" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -7546,9 +7546,9 @@
       <c r="A53" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="61"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="66"/>
       <c r="E53" s="6" t="s">
         <v>1</v>
       </c>
@@ -7685,7 +7685,7 @@
         <f t="shared" si="25"/>
         <v>0.85454338039933209</v>
       </c>
-      <c r="AS53" s="66"/>
+      <c r="AS53" s="61"/>
       <c r="AT53" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -7698,9 +7698,9 @@
       <c r="A54" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="63" t="s">
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="64" t="s">
         <v>85</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -7839,7 +7839,7 @@
         <f t="shared" si="25"/>
         <v>0.87989914494120147</v>
       </c>
-      <c r="AS54" s="66" t="s">
+      <c r="AS54" s="61" t="s">
         <v>85</v>
       </c>
       <c r="AT54" s="8" t="str">
@@ -7854,9 +7854,9 @@
       <c r="A55" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="6" t="s">
         <v>4</v>
       </c>
@@ -7993,7 +7993,7 @@
         <f t="shared" si="25"/>
         <v>1.4781673107460112</v>
       </c>
-      <c r="AS55" s="66"/>
+      <c r="AS55" s="61"/>
       <c r="AT55" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -8006,9 +8006,9 @@
       <c r="A56" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="6" t="s">
         <v>5</v>
       </c>
@@ -8145,7 +8145,7 @@
         <f t="shared" si="25"/>
         <v>1.5720228914926098</v>
       </c>
-      <c r="AS56" s="66"/>
+      <c r="AS56" s="61"/>
       <c r="AT56" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -8158,9 +8158,9 @@
       <c r="A57" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="6" t="s">
         <v>2</v>
       </c>
@@ -8298,7 +8298,7 @@
         <f t="shared" si="25"/>
         <v>0.96706751333213337</v>
       </c>
-      <c r="AS57" s="66"/>
+      <c r="AS57" s="61"/>
       <c r="AT57" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -8311,9 +8311,9 @@
       <c r="A58" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="6" t="s">
         <v>1</v>
       </c>
@@ -8452,7 +8452,7 @@
         <f t="shared" si="25"/>
         <v>-1.6715391632458345</v>
       </c>
-      <c r="AS58" s="66"/>
+      <c r="AS58" s="61"/>
       <c r="AT58" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -8465,9 +8465,9 @@
       <c r="A59" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="63" t="s">
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="64" t="s">
         <v>91</v>
       </c>
       <c r="E59" s="6" t="s">
@@ -8608,7 +8608,7 @@
         <f t="shared" si="25"/>
         <v>0.7951019675996962</v>
       </c>
-      <c r="AS59" s="66" t="s">
+      <c r="AS59" s="61" t="s">
         <v>91</v>
       </c>
       <c r="AT59" s="8" t="str">
@@ -8623,9 +8623,9 @@
       <c r="A60" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="6" t="s">
         <v>4</v>
       </c>
@@ -8764,7 +8764,7 @@
         <f t="shared" si="25"/>
         <v>1.3280196452056667</v>
       </c>
-      <c r="AS60" s="66"/>
+      <c r="AS60" s="61"/>
       <c r="AT60" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -8777,9 +8777,9 @@
       <c r="A61" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="64"/>
       <c r="E61" s="6" t="s">
         <v>5</v>
       </c>
@@ -8918,7 +8918,7 @@
         <f t="shared" si="25"/>
         <v>2.8769601776239675</v>
       </c>
-      <c r="AS61" s="66"/>
+      <c r="AS61" s="61"/>
       <c r="AT61" s="8" t="str">
         <f t="shared" si="36"/>
         <v>grey area</v>
@@ -8931,9 +8931,9 @@
       <c r="A62" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="6" t="s">
         <v>2</v>
       </c>
@@ -9072,7 +9072,7 @@
         <f t="shared" si="25"/>
         <v>1.1935424867517064</v>
       </c>
-      <c r="AS62" s="66"/>
+      <c r="AS62" s="61"/>
       <c r="AT62" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -9085,9 +9085,9 @@
       <c r="A63" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="6" t="s">
         <v>1</v>
       </c>
@@ -9226,7 +9226,7 @@
         <f t="shared" si="25"/>
         <v>0.84313401418395029</v>
       </c>
-      <c r="AS63" s="66"/>
+      <c r="AS63" s="61"/>
       <c r="AT63" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -9239,9 +9239,9 @@
       <c r="A64" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="61" t="s">
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="66" t="s">
         <v>149</v>
       </c>
       <c r="E64" s="6" t="s">
@@ -9380,7 +9380,7 @@
         <f t="shared" si="25"/>
         <v>2.2351326487284142</v>
       </c>
-      <c r="AS64" s="66" t="s">
+      <c r="AS64" s="61" t="s">
         <v>149</v>
       </c>
       <c r="AT64" s="8" t="str">
@@ -9395,9 +9395,9 @@
       <c r="A65" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="61"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="66"/>
       <c r="E65" s="6" t="s">
         <v>4</v>
       </c>
@@ -9534,7 +9534,7 @@
         <f t="shared" si="25"/>
         <v>2.7949552595255476</v>
       </c>
-      <c r="AS65" s="66"/>
+      <c r="AS65" s="61"/>
       <c r="AT65" s="8" t="str">
         <f t="shared" si="36"/>
         <v>grey area</v>
@@ -9547,9 +9547,9 @@
       <c r="A66" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="61"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="66"/>
       <c r="E66" s="6" t="s">
         <v>5</v>
       </c>
@@ -9683,10 +9683,10 @@
         <v>0.5139348373032947</v>
       </c>
       <c r="AR66" s="44">
-        <f t="shared" ref="AR66:AR97" si="63">AM66+AN66+AO66+AP66+AQ66</f>
+        <f t="shared" ref="AR66:AR93" si="63">AM66+AN66+AO66+AP66+AQ66</f>
         <v>2.7288695381804922</v>
       </c>
-      <c r="AS66" s="66"/>
+      <c r="AS66" s="61"/>
       <c r="AT66" s="8" t="str">
         <f t="shared" si="36"/>
         <v>grey area</v>
@@ -9699,9 +9699,9 @@
       <c r="A67" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="61"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="66"/>
       <c r="E67" s="6" t="s">
         <v>2</v>
       </c>
@@ -9838,7 +9838,7 @@
         <f t="shared" si="63"/>
         <v>1.7322624823395083E-2</v>
       </c>
-      <c r="AS67" s="66"/>
+      <c r="AS67" s="61"/>
       <c r="AT67" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -9851,9 +9851,9 @@
       <c r="A68" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="61"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="66"/>
       <c r="E68" s="6" t="s">
         <v>1</v>
       </c>
@@ -9990,7 +9990,7 @@
         <f t="shared" si="63"/>
         <v>1.558900074129447</v>
       </c>
-      <c r="AS68" s="66"/>
+      <c r="AS68" s="61"/>
       <c r="AT68" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -10003,9 +10003,9 @@
       <c r="A69" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="61" t="s">
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="66" t="s">
         <v>150</v>
       </c>
       <c r="E69" s="6" t="s">
@@ -10144,7 +10144,7 @@
         <f t="shared" si="63"/>
         <v>3.2926885863174666</v>
       </c>
-      <c r="AS69" s="66" t="s">
+      <c r="AS69" s="61" t="s">
         <v>150</v>
       </c>
       <c r="AT69" s="8" t="str">
@@ -10159,9 +10159,9 @@
       <c r="A70" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="61"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="66"/>
       <c r="E70" s="6" t="s">
         <v>4</v>
       </c>
@@ -10298,7 +10298,7 @@
         <f t="shared" si="63"/>
         <v>4.4769901960945369</v>
       </c>
-      <c r="AS70" s="66"/>
+      <c r="AS70" s="61"/>
       <c r="AT70" s="8" t="str">
         <f t="shared" si="36"/>
         <v>safe</v>
@@ -10311,9 +10311,9 @@
       <c r="A71" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="61"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="66"/>
       <c r="E71" s="6" t="s">
         <v>5</v>
       </c>
@@ -10450,7 +10450,7 @@
         <f t="shared" si="63"/>
         <v>4.4643775235694179</v>
       </c>
-      <c r="AS71" s="66"/>
+      <c r="AS71" s="61"/>
       <c r="AT71" s="8" t="str">
         <f t="shared" si="36"/>
         <v>safe</v>
@@ -10463,9 +10463,9 @@
       <c r="A72" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B72" s="62"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="61"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="66"/>
       <c r="E72" s="6" t="s">
         <v>2</v>
       </c>
@@ -10602,7 +10602,7 @@
         <f t="shared" si="63"/>
         <v>3.0696854457989113</v>
       </c>
-      <c r="AS72" s="66"/>
+      <c r="AS72" s="61"/>
       <c r="AT72" s="8" t="str">
         <f t="shared" si="36"/>
         <v>safe</v>
@@ -10615,9 +10615,9 @@
       <c r="A73" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="61"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="66"/>
       <c r="E73" s="6" t="s">
         <v>1</v>
       </c>
@@ -10754,7 +10754,7 @@
         <f t="shared" si="63"/>
         <v>2.8191253441545867</v>
       </c>
-      <c r="AS73" s="66"/>
+      <c r="AS73" s="61"/>
       <c r="AT73" s="8" t="str">
         <f t="shared" si="36"/>
         <v>grey area</v>
@@ -10767,9 +10767,9 @@
       <c r="A74" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="63" t="s">
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="64" t="s">
         <v>178</v>
       </c>
       <c r="E74" s="6" t="s">
@@ -10910,7 +10910,7 @@
         <f t="shared" si="63"/>
         <v>-2.0411449848874357</v>
       </c>
-      <c r="AS74" s="66" t="s">
+      <c r="AS74" s="61" t="s">
         <v>178</v>
       </c>
       <c r="AT74" s="8" t="str">
@@ -10925,9 +10925,9 @@
       <c r="A75" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="63"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="64"/>
       <c r="E75" s="6" t="s">
         <v>4</v>
       </c>
@@ -11062,7 +11062,7 @@
         <f t="shared" si="63"/>
         <v>-2.2542517760125484</v>
       </c>
-      <c r="AS75" s="66"/>
+      <c r="AS75" s="61"/>
       <c r="AT75" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -11075,9 +11075,9 @@
       <c r="A76" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="63"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="64"/>
       <c r="E76" s="6" t="s">
         <v>5</v>
       </c>
@@ -11212,7 +11212,7 @@
         <f t="shared" si="63"/>
         <v>-2.0783524096820862</v>
       </c>
-      <c r="AS76" s="66"/>
+      <c r="AS76" s="61"/>
       <c r="AT76" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -11225,9 +11225,9 @@
       <c r="A77" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="64"/>
       <c r="E77" s="6" t="s">
         <v>2</v>
       </c>
@@ -11362,7 +11362,7 @@
         <f t="shared" si="63"/>
         <v>-3.0464120825403667</v>
       </c>
-      <c r="AS77" s="66"/>
+      <c r="AS77" s="61"/>
       <c r="AT77" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -11375,9 +11375,9 @@
       <c r="A78" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
       <c r="E78" s="6" t="s">
         <v>1</v>
       </c>
@@ -11512,7 +11512,7 @@
         <f t="shared" si="63"/>
         <v>-5.038723266411699</v>
       </c>
-      <c r="AS78" s="66"/>
+      <c r="AS78" s="61"/>
       <c r="AT78" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -11525,9 +11525,9 @@
       <c r="A79" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="61" t="s">
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="66" t="s">
         <v>151</v>
       </c>
       <c r="E79" s="6" t="s">
@@ -11577,7 +11577,7 @@
         <v>28988504757</v>
       </c>
       <c r="S79" s="1" t="str">
-        <f t="shared" ref="S79:S93" si="105">IF(Q79&gt;R79,"","X")</f>
+        <f t="shared" ref="S79:S117" si="105">IF(Q79&gt;R79,"","X")</f>
         <v/>
       </c>
       <c r="T79" s="18">
@@ -11624,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="AF79" s="25">
-        <f t="shared" ref="AF79:AF109" si="113">AB79/AE79</f>
+        <f>AB79/AE79</f>
         <v>0.18350811575027318</v>
       </c>
       <c r="AH79" s="42">
@@ -11666,7 +11666,7 @@
         <f t="shared" si="63"/>
         <v>1.2978845283417013</v>
       </c>
-      <c r="AS79" s="66" t="s">
+      <c r="AS79" s="61" t="s">
         <v>151</v>
       </c>
       <c r="AT79" s="8" t="str">
@@ -11681,9 +11681,9 @@
       <c r="A80" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B80" s="62"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="61"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="66"/>
       <c r="E80" s="6" t="s">
         <v>4</v>
       </c>
@@ -11735,23 +11735,23 @@
         <v/>
       </c>
       <c r="T80" s="18">
-        <f t="shared" ref="T80:T81" si="114">F80/H80</f>
+        <f t="shared" ref="T80:T81" si="113">F80/H80</f>
         <v>1.1483281249966089</v>
       </c>
       <c r="U80" s="18">
-        <f t="shared" ref="U80:U81" si="115">R80/(F80+G80)</f>
+        <f t="shared" ref="U80:U81" si="114">R80/(F80+G80)</f>
         <v>1.1653520790901053E-3</v>
       </c>
       <c r="V80" s="18">
-        <f t="shared" ref="V80:V81" si="116">R80/J80</f>
+        <f t="shared" ref="V80:V81" si="115">R80/J80</f>
         <v>8.0872797573983048E-3</v>
       </c>
       <c r="W80" s="18">
-        <f t="shared" ref="W80:W81" si="117">(H80+I80)/(F80+G80)</f>
+        <f t="shared" ref="W80:W81" si="116">(H80+I80)/(F80+G80)</f>
         <v>0.85590308310726704</v>
       </c>
       <c r="X80" s="18">
-        <f t="shared" ref="X80:X81" si="118">(H80+I80)/J80</f>
+        <f t="shared" ref="X80:X81" si="117">(H80+I80)/J80</f>
         <v>5.939773740921944</v>
       </c>
       <c r="Y80" s="19">
@@ -11759,26 +11759,26 @@
         <v>8.8675121924785189E-2</v>
       </c>
       <c r="Z80" s="19">
-        <f t="shared" ref="Z80:Z81" si="119">L80/(F80+G80)</f>
+        <f t="shared" ref="Z80:Z81" si="118">L80/(F80+G80)</f>
         <v>-0.11739517289960248</v>
       </c>
       <c r="AA80" s="19">
-        <f t="shared" ref="AA80:AA81" si="120">Q80/(F80+G80)</f>
+        <f t="shared" ref="AA80:AA81" si="119">Q80/(F80+G80)</f>
         <v>2.8840138444045652E-2</v>
       </c>
       <c r="AB80" s="19">
-        <f t="shared" ref="AB80:AB81" si="121">(M80*N80)/(H80+I80)</f>
+        <f t="shared" ref="AB80:AB81" si="120">(M80*N80)/(H80+I80)</f>
         <v>0.12243481175367925</v>
       </c>
       <c r="AC80" s="19">
-        <f t="shared" ref="AC80:AC81" si="122">P80/(F80+G80)</f>
+        <f t="shared" ref="AC80:AC81" si="121">P80/(F80+G80)</f>
         <v>0.92588419022855617</v>
       </c>
       <c r="AE80" s="34">
         <v>1</v>
       </c>
       <c r="AF80" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" ref="AF79:AF109" si="122">AB80/AE80</f>
         <v>0.12243481175367925</v>
       </c>
       <c r="AH80" s="42">
@@ -11820,7 +11820,7 @@
         <f t="shared" si="63"/>
         <v>1.0365744383964131</v>
       </c>
-      <c r="AS80" s="66"/>
+      <c r="AS80" s="61"/>
       <c r="AT80" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -11833,9 +11833,9 @@
       <c r="A81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="62"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="61"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="66"/>
       <c r="E81" s="6" t="s">
         <v>5</v>
       </c>
@@ -11887,23 +11887,23 @@
         <v/>
       </c>
       <c r="T81" s="18">
+        <f t="shared" si="113"/>
+        <v>1.0818165486596469</v>
+      </c>
+      <c r="U81" s="18">
         <f t="shared" si="114"/>
-        <v>1.0818165486596469</v>
-      </c>
-      <c r="U81" s="18">
+        <v>-3.9504548984872906E-2</v>
+      </c>
+      <c r="V81" s="18">
         <f t="shared" si="115"/>
-        <v>-3.9504548984872906E-2</v>
-      </c>
-      <c r="V81" s="18">
+        <v>-0.41695147465523447</v>
+      </c>
+      <c r="W81" s="18">
         <f t="shared" si="116"/>
-        <v>-0.41695147465523447</v>
-      </c>
-      <c r="W81" s="18">
+        <v>0.90525384514459839</v>
+      </c>
+      <c r="X81" s="18">
         <f t="shared" si="117"/>
-        <v>0.90525384514459839</v>
-      </c>
-      <c r="X81" s="18">
-        <f t="shared" si="118"/>
         <v>9.5545180332243156</v>
       </c>
       <c r="Y81" s="19">
@@ -11911,26 +11911,26 @@
         <v>5.3102283017008131E-2</v>
       </c>
       <c r="Z81" s="19">
+        <f t="shared" si="118"/>
+        <v>-0.14875430900696962</v>
+      </c>
+      <c r="AA81" s="19">
         <f t="shared" si="119"/>
-        <v>-0.14875430900696962</v>
-      </c>
-      <c r="AA81" s="19">
+        <v>-1.4553751932166622E-2</v>
+      </c>
+      <c r="AB81" s="19">
         <f t="shared" si="120"/>
-        <v>-1.4553751932166622E-2</v>
-      </c>
-      <c r="AB81" s="19">
+        <v>7.5046607589795769E-2</v>
+      </c>
+      <c r="AC81" s="19">
         <f t="shared" si="121"/>
-        <v>7.5046607589795769E-2</v>
-      </c>
-      <c r="AC81" s="19">
+        <v>1.1293602848996365</v>
+      </c>
+      <c r="AE81" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF81" s="25">
         <f t="shared" si="122"/>
-        <v>1.1293602848996365</v>
-      </c>
-      <c r="AE81" s="34">
-        <v>1</v>
-      </c>
-      <c r="AF81" s="25">
-        <f t="shared" si="113"/>
         <v>7.5046607589795769E-2</v>
       </c>
       <c r="AH81" s="42">
@@ -11972,7 +11972,7 @@
         <f t="shared" si="63"/>
         <v>0.98182757508801632</v>
       </c>
-      <c r="AS81" s="66"/>
+      <c r="AS81" s="61"/>
       <c r="AT81" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -11985,9 +11985,9 @@
       <c r="A82" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="61"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="66"/>
       <c r="E82" s="6" t="s">
         <v>2</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>1</v>
       </c>
       <c r="AF82" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>6.2372649661457592E-2</v>
       </c>
       <c r="AH82" s="42">
@@ -12124,7 +12124,7 @@
         <f t="shared" si="63"/>
         <v>0.37387585089360925</v>
       </c>
-      <c r="AS82" s="66"/>
+      <c r="AS82" s="61"/>
       <c r="AT82" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -12137,9 +12137,9 @@
       <c r="A83" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B83" s="62"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="61"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="66"/>
       <c r="E83" s="6" t="s">
         <v>1</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="AF83" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>6.5729088810301955E-2</v>
       </c>
       <c r="AH83" s="42">
@@ -12276,7 +12276,7 @@
         <f t="shared" si="63"/>
         <v>-5.6851900029296285</v>
       </c>
-      <c r="AS83" s="66"/>
+      <c r="AS83" s="61"/>
       <c r="AT83" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -12289,9 +12289,9 @@
       <c r="A84" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="61" t="s">
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="66" t="s">
         <v>176</v>
       </c>
       <c r="E84" s="6" t="s">
@@ -12387,7 +12387,7 @@
         <v>1</v>
       </c>
       <c r="AF84" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>2.3537234464329457</v>
       </c>
       <c r="AH84" s="42">
@@ -12429,7 +12429,7 @@
         <f t="shared" si="63"/>
         <v>2.5255713367937909</v>
       </c>
-      <c r="AS84" s="66" t="s">
+      <c r="AS84" s="61" t="s">
         <v>176</v>
       </c>
       <c r="AT84" s="8" t="str">
@@ -12444,9 +12444,9 @@
       <c r="A85" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B85" s="62"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="61"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="66"/>
       <c r="E85" s="6" t="s">
         <v>4</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>1</v>
       </c>
       <c r="AF85" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>0.63144763268072401</v>
       </c>
       <c r="AH85" s="42">
@@ -12582,7 +12582,7 @@
         <f t="shared" si="63"/>
         <v>1.2712625396110842</v>
       </c>
-      <c r="AS85" s="66"/>
+      <c r="AS85" s="61"/>
       <c r="AT85" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -12595,9 +12595,9 @@
       <c r="A86" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="61"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="66"/>
       <c r="E86" s="6" t="s">
         <v>5</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="AF86" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>1.0311914872045445</v>
       </c>
       <c r="AH86" s="42">
@@ -12733,7 +12733,7 @@
         <f t="shared" si="63"/>
         <v>2.1404762417649317</v>
       </c>
-      <c r="AS86" s="66"/>
+      <c r="AS86" s="61"/>
       <c r="AT86" s="8" t="str">
         <f t="shared" si="36"/>
         <v>grey area</v>
@@ -12746,9 +12746,9 @@
       <c r="A87" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="61"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="66"/>
       <c r="E87" s="6" t="s">
         <v>2</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="AF87" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>0.22498113984490209</v>
       </c>
       <c r="AH87" s="42">
@@ -12885,7 +12885,7 @@
         <f t="shared" si="63"/>
         <v>1.2590742097899739</v>
       </c>
-      <c r="AS87" s="66"/>
+      <c r="AS87" s="61"/>
       <c r="AT87" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -12898,9 +12898,9 @@
       <c r="A88" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="62"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="61"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="66"/>
       <c r="E88" s="6" t="s">
         <v>1</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>1</v>
       </c>
       <c r="AF88" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>0.31727274873458311</v>
       </c>
       <c r="AH88" s="42">
@@ -13036,7 +13036,7 @@
         <f t="shared" si="63"/>
         <v>1.2124471613932686</v>
       </c>
-      <c r="AS88" s="66"/>
+      <c r="AS88" s="61"/>
       <c r="AT88" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -13049,9 +13049,9 @@
       <c r="A89" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B89" s="62"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="61" t="s">
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="66" t="s">
         <v>199</v>
       </c>
       <c r="E89" s="6" t="s">
@@ -13147,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="AF89" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>2.1777403221577969</v>
       </c>
       <c r="AH89" s="42">
@@ -13189,7 +13189,7 @@
         <f t="shared" si="63"/>
         <v>2.1095130538415172</v>
       </c>
-      <c r="AS89" s="66" t="s">
+      <c r="AS89" s="61" t="s">
         <v>199</v>
       </c>
       <c r="AT89" s="8" t="str">
@@ -13204,9 +13204,9 @@
       <c r="A90" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B90" s="62"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="61"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="66"/>
       <c r="E90" s="6" t="s">
         <v>4</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="AF90" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>1.8785829703115609</v>
       </c>
       <c r="AH90" s="42">
@@ -13342,7 +13342,7 @@
         <f t="shared" si="63"/>
         <v>2.3697247690780108</v>
       </c>
-      <c r="AS90" s="66"/>
+      <c r="AS90" s="61"/>
       <c r="AT90" s="8" t="str">
         <f t="shared" si="36"/>
         <v>grey area</v>
@@ -13355,9 +13355,9 @@
       <c r="A91" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="61"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="66"/>
       <c r="E91" s="6" t="s">
         <v>5</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>1</v>
       </c>
       <c r="AF91" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>1.9057313231084501</v>
       </c>
       <c r="AH91" s="42">
@@ -13493,7 +13493,7 @@
         <f t="shared" si="63"/>
         <v>1.8553605299571072</v>
       </c>
-      <c r="AS91" s="66"/>
+      <c r="AS91" s="61"/>
       <c r="AT91" s="8" t="str">
         <f t="shared" si="36"/>
         <v>grey area</v>
@@ -13506,9 +13506,9 @@
       <c r="A92" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B92" s="62"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="61"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="66"/>
       <c r="E92" s="6" t="s">
         <v>2</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="AF92" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>0.68122144813475705</v>
       </c>
       <c r="AH92" s="42">
@@ -13644,7 +13644,7 @@
         <f t="shared" si="63"/>
         <v>1.4126825631092998</v>
       </c>
-      <c r="AS92" s="66"/>
+      <c r="AS92" s="61"/>
       <c r="AT92" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -13657,9 +13657,9 @@
       <c r="A93" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B93" s="62"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="61"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="66"/>
       <c r="E93" s="6" t="s">
         <v>1</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="AF93" s="25">
-        <f t="shared" si="113"/>
+        <f>AB93/AE93</f>
         <v>1.3715652696658243</v>
       </c>
       <c r="AH93" s="42">
@@ -13795,7 +13795,7 @@
         <f t="shared" si="63"/>
         <v>1.2617352189323083</v>
       </c>
-      <c r="AS93" s="66"/>
+      <c r="AS93" s="61"/>
       <c r="AT93" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -13808,28 +13808,147 @@
       <c r="A94" s="6"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
-      <c r="D94" s="61" t="s">
+      <c r="D94" s="66" t="s">
         <v>215</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F94" s="15">
+        <v>749830324140</v>
+      </c>
+      <c r="G94" s="15">
+        <v>232796632284</v>
+      </c>
+      <c r="H94" s="15">
+        <v>775814969312</v>
+      </c>
+      <c r="I94" s="15">
+        <v>10309286638</v>
+      </c>
+      <c r="J94" s="15">
+        <v>196502700474</v>
+      </c>
       <c r="K94" s="15">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="N94" s="16"/>
-      <c r="O94" s="17"/>
-      <c r="Y94" s="19"/>
-      <c r="Z94" s="19"/>
-      <c r="AA94" s="19"/>
-      <c r="AB94" s="19"/>
-      <c r="AC94" s="19"/>
-      <c r="AH94" s="42"/>
-      <c r="AI94" s="42"/>
-      <c r="AJ94" s="42"/>
-      <c r="AK94" s="42"/>
-      <c r="AL94" s="42"/>
+      <c r="L94" s="15">
+        <v>-40375453187</v>
+      </c>
+      <c r="M94" s="15">
+        <v>1800000000</v>
+      </c>
+      <c r="N94" s="16">
+        <v>330</v>
+      </c>
+      <c r="O94" s="17">
+        <f t="shared" si="104"/>
+        <v>594000000000</v>
+      </c>
+      <c r="P94" s="15">
+        <v>978840639564</v>
+      </c>
+      <c r="Q94" s="15">
+        <f>53592758567+26043566443</f>
+        <v>79636325010</v>
+      </c>
+      <c r="R94" s="15">
+        <v>34393355090</v>
+      </c>
+      <c r="S94" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T94" s="18">
+        <f t="shared" ref="T94" si="150">F94/H94</f>
+        <v>0.96650664630118777</v>
+      </c>
+      <c r="U94" s="18">
+        <f t="shared" ref="U94" si="151">R94/(F94+G94)</f>
+        <v>3.5001436572801886E-2</v>
+      </c>
+      <c r="V94" s="18">
+        <f t="shared" ref="V94" si="152">R94/J94</f>
+        <v>0.17502739151694616</v>
+      </c>
+      <c r="W94" s="18">
+        <f t="shared" ref="W94" si="153">(H94+I94)/(F94+G94)</f>
+        <v>0.80002309198892996</v>
+      </c>
+      <c r="X94" s="18">
+        <f t="shared" ref="X94" si="154">(H94+I94)/J94</f>
+        <v>4.0005773663859392</v>
+      </c>
+      <c r="Y94" s="19">
+        <f t="shared" si="31"/>
+        <v>-2.6444058960649681E-2</v>
+      </c>
+      <c r="Z94" s="19">
+        <f t="shared" si="146"/>
+        <v>-4.1089299375558892E-2</v>
+      </c>
+      <c r="AA94" s="19">
+        <f t="shared" ref="AA94:AA108" si="155">Q94/(F94+G94)</f>
+        <v>8.1044311362894472E-2</v>
+      </c>
+      <c r="AB94" s="19">
+        <f t="shared" ref="AB94:AB108" si="156">(M94*N94)/(H94+I94)</f>
+        <v>0.75560573981040002</v>
+      </c>
+      <c r="AC94" s="19">
+        <f t="shared" ref="AC94:AC108" si="157">P94/(F94+G94)</f>
+        <v>0.99614674029116879</v>
+      </c>
+      <c r="AD94" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE94" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="25">
+        <f t="shared" ref="AF94:AF103" si="158">AB94/AE94</f>
+        <v>0.75560573981040002</v>
+      </c>
+      <c r="AH94" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI94" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ94" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK94" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL94" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM94" s="44">
+        <f t="shared" ref="AM94:AM108" si="159">AH94*Y94</f>
+        <v>-3.1732870752779613E-2</v>
+      </c>
+      <c r="AN94" s="44">
+        <f t="shared" ref="AN94:AN108" si="160">AI94*Z94</f>
+        <v>-5.7525019125782444E-2</v>
+      </c>
+      <c r="AO94" s="44">
+        <f t="shared" ref="AO94:AO108" si="161">AJ94*AA94</f>
+        <v>0.26744622749755176</v>
+      </c>
+      <c r="AP94" s="44">
+        <f t="shared" ref="AP94:AP108" si="162">AK94*AF94</f>
+        <v>0.45336344388624</v>
+      </c>
+      <c r="AQ94" s="44">
+        <f t="shared" ref="AQ94:AQ108" si="163">AL94*AC94</f>
+        <v>0.99614674029116879</v>
+      </c>
+      <c r="AR94" s="44">
+        <f t="shared" ref="AR94:AR108" si="164">AM94+AN94+AO94+AP94+AQ94</f>
+        <v>1.6276985217963986</v>
+      </c>
       <c r="AS94" s="55"/>
       <c r="AU94" s="6"/>
     </row>
@@ -13837,26 +13956,145 @@
       <c r="A95" s="6"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
-      <c r="D95" s="61"/>
+      <c r="D95" s="66"/>
       <c r="E95" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="F95" s="15">
+        <v>727240100955</v>
+      </c>
+      <c r="G95" s="15">
+        <v>219208835509</v>
+      </c>
+      <c r="H95" s="15">
+        <v>760156840021</v>
+      </c>
+      <c r="I95" s="15">
+        <v>14275886170</v>
+      </c>
+      <c r="J95" s="15">
+        <v>172016210273</v>
+      </c>
       <c r="K95" s="15">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="N95" s="16"/>
-      <c r="O95" s="17"/>
-      <c r="Y95" s="19"/>
-      <c r="Z95" s="19"/>
-      <c r="AA95" s="19"/>
-      <c r="AB95" s="19"/>
-      <c r="AC95" s="19"/>
-      <c r="AH95" s="42"/>
-      <c r="AI95" s="42"/>
-      <c r="AJ95" s="42"/>
-      <c r="AK95" s="42"/>
-      <c r="AL95" s="42"/>
+      <c r="L95" s="15">
+        <v>-66142721394</v>
+      </c>
+      <c r="M95" s="15">
+        <v>1800000000</v>
+      </c>
+      <c r="N95" s="16">
+        <v>160</v>
+      </c>
+      <c r="O95" s="17">
+        <f t="shared" si="104"/>
+        <v>288000000000</v>
+      </c>
+      <c r="P95" s="15">
+        <v>1218317826843</v>
+      </c>
+      <c r="Q95" s="15">
+        <f>-28628554806+26782998764</f>
+        <v>-1845556042</v>
+      </c>
+      <c r="R95" s="15">
+        <v>-22984761751</v>
+      </c>
+      <c r="S95" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T95" s="18">
+        <f t="shared" ref="T95:T96" si="165">F95/H95</f>
+        <v>0.9566974375115922</v>
+      </c>
+      <c r="U95" s="18">
+        <f t="shared" ref="U95:U96" si="166">R95/(F95+G95)</f>
+        <v>-2.4285263436263863E-2</v>
+      </c>
+      <c r="V95" s="18">
+        <f t="shared" ref="V95:V96" si="167">R95/J95</f>
+        <v>-0.13361974266565813</v>
+      </c>
+      <c r="W95" s="18">
+        <f t="shared" ref="W95:W96" si="168">(H95+I95)/(F95+G95)</f>
+        <v>0.81825093394297144</v>
+      </c>
+      <c r="X95" s="18">
+        <f t="shared" ref="X95:X96" si="169">(H95+I95)/J95</f>
+        <v>4.5020915468485736</v>
+      </c>
+      <c r="Y95" s="19">
+        <f t="shared" ref="Y95:Y98" si="170">(F95-H95)/(F95+G95)</f>
+        <v>-3.4779202340254362E-2</v>
+      </c>
+      <c r="Z95" s="19">
+        <f t="shared" ref="Z95:Z98" si="171">L95/(F95+G95)</f>
+        <v>-6.9885145247364194E-2</v>
+      </c>
+      <c r="AA95" s="19">
+        <f t="shared" si="155"/>
+        <v>-1.9499795191224236E-3</v>
+      </c>
+      <c r="AB95" s="19">
+        <f t="shared" si="156"/>
+        <v>0.37188511055893825</v>
+      </c>
+      <c r="AC95" s="19">
+        <f t="shared" si="157"/>
+        <v>1.2872515144818286</v>
+      </c>
+      <c r="AD95" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE95" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF95" s="25">
+        <f t="shared" si="158"/>
+        <v>0.37188511055893825</v>
+      </c>
+      <c r="AH95" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI95" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ95" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK95" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL95" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM95" s="44">
+        <f t="shared" si="159"/>
+        <v>-4.1735042808305235E-2</v>
+      </c>
+      <c r="AN95" s="44">
+        <f t="shared" si="160"/>
+        <v>-9.7839203346309869E-2</v>
+      </c>
+      <c r="AO95" s="44">
+        <f t="shared" si="161"/>
+        <v>-6.4349324131039972E-3</v>
+      </c>
+      <c r="AP95" s="44">
+        <f t="shared" si="162"/>
+        <v>0.22313106633536295</v>
+      </c>
+      <c r="AQ95" s="44">
+        <f t="shared" si="163"/>
+        <v>1.2872515144818286</v>
+      </c>
+      <c r="AR95" s="44">
+        <f t="shared" si="164"/>
+        <v>1.3643734022494725</v>
+      </c>
       <c r="AS95" s="55"/>
       <c r="AU95" s="6"/>
     </row>
@@ -13864,26 +14102,145 @@
       <c r="A96" s="6"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
-      <c r="D96" s="61"/>
+      <c r="D96" s="66"/>
       <c r="E96" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F96" s="15">
+        <v>692169207950</v>
+      </c>
+      <c r="G96" s="15">
+        <v>209012588320</v>
+      </c>
+      <c r="H96" s="15">
+        <v>811365493384</v>
+      </c>
+      <c r="I96" s="15">
+        <v>13294954273</v>
+      </c>
+      <c r="J96" s="15">
+        <v>76521348613</v>
+      </c>
       <c r="K96" s="15">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="N96" s="16"/>
-      <c r="O96" s="17"/>
-      <c r="Y96" s="19"/>
-      <c r="Z96" s="19"/>
-      <c r="AA96" s="19"/>
-      <c r="AB96" s="19"/>
-      <c r="AC96" s="19"/>
-      <c r="AH96" s="42"/>
-      <c r="AI96" s="42"/>
-      <c r="AJ96" s="42"/>
-      <c r="AK96" s="42"/>
-      <c r="AL96" s="42"/>
+      <c r="L96" s="15">
+        <v>-161637583054</v>
+      </c>
+      <c r="M96" s="15">
+        <v>1800000000</v>
+      </c>
+      <c r="N96" s="16">
+        <v>113</v>
+      </c>
+      <c r="O96" s="17">
+        <f t="shared" si="104"/>
+        <v>203400000000</v>
+      </c>
+      <c r="P96" s="15">
+        <v>1279809883694</v>
+      </c>
+      <c r="Q96" s="15">
+        <f>-90434239905+30499688935</f>
+        <v>-59934550970</v>
+      </c>
+      <c r="R96" s="15">
+        <v>-96695781573</v>
+      </c>
+      <c r="S96" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T96" s="18">
+        <f t="shared" si="165"/>
+        <v>0.85309174914887931</v>
+      </c>
+      <c r="U96" s="18">
+        <f t="shared" si="166"/>
+        <v>-0.10729886241957479</v>
+      </c>
+      <c r="V96" s="18">
+        <f t="shared" si="167"/>
+        <v>-1.2636445034709258</v>
+      </c>
+      <c r="W96" s="18">
+        <f t="shared" si="168"/>
+        <v>0.91508777814895659</v>
+      </c>
+      <c r="X96" s="18">
+        <f t="shared" si="169"/>
+        <v>10.776867666403108</v>
+      </c>
+      <c r="Y96" s="19">
+        <f t="shared" si="170"/>
+        <v>-0.13226663690650939</v>
+      </c>
+      <c r="Z96" s="19">
+        <f t="shared" si="171"/>
+        <v>-0.17936179328412924</v>
+      </c>
+      <c r="AA96" s="19">
+        <f t="shared" si="155"/>
+        <v>-6.6506615222444207E-2</v>
+      </c>
+      <c r="AB96" s="19">
+        <f t="shared" si="156"/>
+        <v>0.24664696915911738</v>
+      </c>
+      <c r="AC96" s="19">
+        <f t="shared" si="157"/>
+        <v>1.42014617804215</v>
+      </c>
+      <c r="AD96" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE96" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF96" s="25">
+        <f t="shared" si="158"/>
+        <v>0.24664696915911738</v>
+      </c>
+      <c r="AH96" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI96" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ96" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK96" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL96" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM96" s="44">
+        <f t="shared" si="159"/>
+        <v>-0.15871996428781127</v>
+      </c>
+      <c r="AN96" s="44">
+        <f t="shared" si="160"/>
+        <v>-0.25110651059778094</v>
+      </c>
+      <c r="AO96" s="44">
+        <f t="shared" si="161"/>
+        <v>-0.21947183023406588</v>
+      </c>
+      <c r="AP96" s="44">
+        <f t="shared" si="162"/>
+        <v>0.14798818149547041</v>
+      </c>
+      <c r="AQ96" s="44">
+        <f t="shared" si="163"/>
+        <v>1.42014617804215</v>
+      </c>
+      <c r="AR96" s="44">
+        <f t="shared" si="164"/>
+        <v>0.93883605441796236</v>
+      </c>
       <c r="AS96" s="55"/>
       <c r="AU96" s="6"/>
     </row>
@@ -13891,26 +14248,145 @@
       <c r="A97" s="6"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
-      <c r="D97" s="61"/>
+      <c r="D97" s="66"/>
       <c r="E97" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F97" s="15">
+        <v>636445607431</v>
+      </c>
+      <c r="G97" s="15">
+        <v>200425166570</v>
+      </c>
+      <c r="H97" s="15">
+        <v>748332823419</v>
+      </c>
+      <c r="I97" s="15">
+        <v>14350756866</v>
+      </c>
+      <c r="J97" s="15">
+        <v>74187193716</v>
+      </c>
       <c r="K97" s="15">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="N97" s="16"/>
-      <c r="O97" s="17"/>
-      <c r="Y97" s="19"/>
-      <c r="Z97" s="19"/>
-      <c r="AA97" s="19"/>
-      <c r="AB97" s="19"/>
-      <c r="AC97" s="19"/>
-      <c r="AH97" s="42"/>
-      <c r="AI97" s="42"/>
-      <c r="AJ97" s="42"/>
-      <c r="AK97" s="42"/>
-      <c r="AL97" s="42"/>
+      <c r="L97" s="15">
+        <v>-163971737951</v>
+      </c>
+      <c r="M97" s="15">
+        <v>1800000000</v>
+      </c>
+      <c r="N97" s="16">
+        <v>62</v>
+      </c>
+      <c r="O97" s="17">
+        <f t="shared" si="104"/>
+        <v>111600000000</v>
+      </c>
+      <c r="P97" s="15">
+        <v>1072625592333</v>
+      </c>
+      <c r="Q97" s="15">
+        <f>5026701131+26797517030</f>
+        <v>31824218161</v>
+      </c>
+      <c r="R97" s="15">
+        <v>1112983748</v>
+      </c>
+      <c r="S97" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T97" s="18">
+        <f t="shared" ref="T97:T98" si="172">F97/H97</f>
+        <v>0.85048468744587846</v>
+      </c>
+      <c r="U97" s="18">
+        <f t="shared" ref="U97:U98" si="173">R97/(F97+G97)</f>
+        <v>1.3299350181377825E-3</v>
+      </c>
+      <c r="V97" s="18">
+        <f t="shared" ref="V97:V98" si="174">R97/J97</f>
+        <v>1.5002370250863959E-2</v>
+      </c>
+      <c r="W97" s="18">
+        <f t="shared" ref="W97:W98" si="175">(H97+I97)/(F97+G97)</f>
+        <v>0.91135167337566581</v>
+      </c>
+      <c r="X97" s="18">
+        <f t="shared" ref="X97:X98" si="176">(H97+I97)/J97</f>
+        <v>10.280528782429352</v>
+      </c>
+      <c r="Y97" s="19">
+        <f t="shared" si="170"/>
+        <v>-0.1336971244115478</v>
+      </c>
+      <c r="Z97" s="19">
+        <f t="shared" si="171"/>
+        <v>-0.19593435814118187</v>
+      </c>
+      <c r="AA97" s="19">
+        <f t="shared" si="155"/>
+        <v>3.8027637180889258E-2</v>
+      </c>
+      <c r="AB97" s="19">
+        <f t="shared" si="156"/>
+        <v>0.14632542627743114</v>
+      </c>
+      <c r="AC97" s="19">
+        <f t="shared" si="157"/>
+        <v>1.2817099433463048</v>
+      </c>
+      <c r="AD97" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE97" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF97" s="25">
+        <f t="shared" si="158"/>
+        <v>0.14632542627743114</v>
+      </c>
+      <c r="AH97" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI97" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ97" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK97" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL97" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM97" s="44">
+        <f t="shared" si="159"/>
+        <v>-0.16043654929385734</v>
+      </c>
+      <c r="AN97" s="44">
+        <f t="shared" si="160"/>
+        <v>-0.2743081013976546</v>
+      </c>
+      <c r="AO97" s="44">
+        <f t="shared" si="161"/>
+        <v>0.12549120269693453</v>
+      </c>
+      <c r="AP97" s="44">
+        <f t="shared" si="162"/>
+        <v>8.7795255766458677E-2</v>
+      </c>
+      <c r="AQ97" s="44">
+        <f t="shared" si="163"/>
+        <v>1.2817099433463048</v>
+      </c>
+      <c r="AR97" s="44">
+        <f t="shared" si="164"/>
+        <v>1.0602517511181861</v>
+      </c>
       <c r="AS97" s="55"/>
       <c r="AU97" s="6"/>
     </row>
@@ -13918,26 +14394,145 @@
       <c r="A98" s="6"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
-      <c r="D98" s="61"/>
+      <c r="D98" s="66"/>
       <c r="E98" s="6" t="s">
         <v>1</v>
+      </c>
+      <c r="F98" s="15">
+        <v>562587933413</v>
+      </c>
+      <c r="G98" s="15">
+        <v>197837546221</v>
+      </c>
+      <c r="H98" s="15">
+        <v>619717175037</v>
+      </c>
+      <c r="I98" s="15">
+        <v>12869216111</v>
+      </c>
+      <c r="J98" s="15">
+        <v>127839088486</v>
       </c>
       <c r="K98" s="15">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="N98" s="16"/>
-      <c r="O98" s="17"/>
-      <c r="Y98" s="19"/>
-      <c r="Z98" s="19"/>
-      <c r="AA98" s="19"/>
-      <c r="AB98" s="19"/>
-      <c r="AC98" s="19"/>
-      <c r="AH98" s="42"/>
-      <c r="AI98" s="42"/>
-      <c r="AJ98" s="42"/>
-      <c r="AK98" s="42"/>
-      <c r="AL98" s="42"/>
+      <c r="L98" s="15">
+        <v>-110319843181</v>
+      </c>
+      <c r="M98" s="15">
+        <v>1800000000</v>
+      </c>
+      <c r="N98" s="16">
+        <v>116</v>
+      </c>
+      <c r="O98" s="17">
+        <f t="shared" si="104"/>
+        <v>208800000000</v>
+      </c>
+      <c r="P98" s="15">
+        <v>1204954780957</v>
+      </c>
+      <c r="Q98" s="15">
+        <f>48827525559+22838297166</f>
+        <v>71665822725</v>
+      </c>
+      <c r="R98" s="15">
+        <v>55118520227</v>
+      </c>
+      <c r="S98" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T98" s="18">
+        <f t="shared" si="172"/>
+        <v>0.90781400947845425</v>
+      </c>
+      <c r="U98" s="18">
+        <f t="shared" si="173"/>
+        <v>7.2483789277456967E-2</v>
+      </c>
+      <c r="V98" s="18">
+        <f t="shared" si="174"/>
+        <v>0.43115545393642396</v>
+      </c>
+      <c r="W98" s="18">
+        <f t="shared" si="175"/>
+        <v>0.83188479093634504</v>
+      </c>
+      <c r="X98" s="18">
+        <f t="shared" si="176"/>
+        <v>4.9483017959509015</v>
+      </c>
+      <c r="Y98" s="19">
+        <f t="shared" si="170"/>
+        <v>-7.5127994989721864E-2</v>
+      </c>
+      <c r="Z98" s="19">
+        <f t="shared" si="171"/>
+        <v>-0.14507646855034104</v>
+      </c>
+      <c r="AA98" s="19">
+        <f t="shared" si="155"/>
+        <v>9.4244373241535048E-2</v>
+      </c>
+      <c r="AB98" s="19">
+        <f t="shared" si="156"/>
+        <v>0.33007349339443681</v>
+      </c>
+      <c r="AC98" s="19">
+        <f t="shared" si="157"/>
+        <v>1.5845797033746898</v>
+      </c>
+      <c r="AD98" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE98" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF98" s="25">
+        <f t="shared" si="158"/>
+        <v>0.33007349339443681</v>
+      </c>
+      <c r="AH98" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI98" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ98" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK98" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL98" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM98" s="44">
+        <f t="shared" si="159"/>
+        <v>-9.0153593987666231E-2</v>
+      </c>
+      <c r="AN98" s="44">
+        <f t="shared" si="160"/>
+        <v>-0.20310705597047743</v>
+      </c>
+      <c r="AO98" s="44">
+        <f t="shared" si="161"/>
+        <v>0.31100643169706566</v>
+      </c>
+      <c r="AP98" s="44">
+        <f t="shared" si="162"/>
+        <v>0.19804409603666209</v>
+      </c>
+      <c r="AQ98" s="44">
+        <f t="shared" si="163"/>
+        <v>1.5845797033746898</v>
+      </c>
+      <c r="AR98" s="44">
+        <f t="shared" si="164"/>
+        <v>1.8003695811502738</v>
+      </c>
       <c r="AS98" s="55"/>
       <c r="AU98" s="6"/>
     </row>
@@ -13945,24 +14540,147 @@
       <c r="A99" s="6"/>
       <c r="B99" s="57"/>
       <c r="C99" s="57"/>
-      <c r="D99" s="61" t="s">
+      <c r="D99" s="66" t="s">
         <v>274</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N99" s="16"/>
-      <c r="O99" s="17"/>
-      <c r="Y99" s="19"/>
-      <c r="Z99" s="19"/>
-      <c r="AA99" s="19"/>
-      <c r="AB99" s="19"/>
-      <c r="AC99" s="19"/>
-      <c r="AH99" s="42"/>
-      <c r="AI99" s="42"/>
-      <c r="AJ99" s="42"/>
-      <c r="AK99" s="42"/>
-      <c r="AL99" s="42"/>
+      <c r="F99" s="15">
+        <v>118108607817</v>
+      </c>
+      <c r="G99" s="15">
+        <v>162149057175</v>
+      </c>
+      <c r="H99" s="15">
+        <v>121306029590</v>
+      </c>
+      <c r="I99" s="15">
+        <v>16950195991</v>
+      </c>
+      <c r="J99" s="15">
+        <v>142001439411</v>
+      </c>
+      <c r="K99" s="15">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="15">
+        <v>33147408874</v>
+      </c>
+      <c r="M99" s="15">
+        <v>668000089</v>
+      </c>
+      <c r="N99" s="16">
+        <v>840</v>
+      </c>
+      <c r="O99" s="17">
+        <f t="shared" si="104"/>
+        <v>561120074760</v>
+      </c>
+      <c r="P99" s="15">
+        <v>278331887681</v>
+      </c>
+      <c r="Q99" s="15">
+        <f>-11208138846+10895664318</f>
+        <v>-312474528</v>
+      </c>
+      <c r="R99" s="15">
+        <v>-10932426503</v>
+      </c>
+      <c r="S99" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T99" s="18">
+        <f t="shared" ref="T99:T103" si="177">F99/H99</f>
+        <v>0.97364169131734912</v>
+      </c>
+      <c r="U99" s="18">
+        <f t="shared" ref="U99:U103" si="178">R99/(F99+G99)</f>
+        <v>-3.9008483508602941E-2</v>
+      </c>
+      <c r="V99" s="18">
+        <f t="shared" ref="V99:V103" si="179">R99/J99</f>
+        <v>-7.6988138629763281E-2</v>
+      </c>
+      <c r="W99" s="18">
+        <f t="shared" ref="W99:W103" si="180">(H99+I99)/(F99+G99)</f>
+        <v>0.49331826690608638</v>
+      </c>
+      <c r="X99" s="18">
+        <f t="shared" ref="X99:X103" si="181">(H99+I99)/J99</f>
+        <v>0.97362552206840602</v>
+      </c>
+      <c r="Y99" s="19">
+        <f t="shared" ref="Y99:Y103" si="182">(F99-H99)/(F99+G99)</f>
+        <v>-1.1408864671341891E-2</v>
+      </c>
+      <c r="Z99" s="19">
+        <f t="shared" ref="Z99:Z103" si="183">L99/(F99+G99)</f>
+        <v>0.11827476288631106</v>
+      </c>
+      <c r="AA99" s="19">
+        <f t="shared" ref="AA99:AA103" si="184">Q99/(F99+G99)</f>
+        <v>-1.1149544402609636E-3</v>
+      </c>
+      <c r="AB99" s="19">
+        <f t="shared" ref="AB99:AB103" si="185">(M99*N99)/(H99+I99)</f>
+        <v>4.058551955993166</v>
+      </c>
+      <c r="AC99" s="19">
+        <f t="shared" ref="AC99:AC103" si="186">P99/(F99+G99)</f>
+        <v>0.9931285472208049</v>
+      </c>
+      <c r="AD99" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE99" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF99" s="25">
+        <f t="shared" si="158"/>
+        <v>4.058551955993166</v>
+      </c>
+      <c r="AH99" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI99" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ99" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK99" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL99" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM99" s="44">
+        <f t="shared" si="159"/>
+        <v>-1.3690637605610269E-2</v>
+      </c>
+      <c r="AN99" s="44">
+        <f t="shared" si="160"/>
+        <v>0.16558466804083546</v>
+      </c>
+      <c r="AO99" s="44">
+        <f t="shared" si="161"/>
+        <v>-3.6793496528611798E-3</v>
+      </c>
+      <c r="AP99" s="44">
+        <f t="shared" si="162"/>
+        <v>2.4351311735958996</v>
+      </c>
+      <c r="AQ99" s="44">
+        <f t="shared" si="163"/>
+        <v>0.9931285472208049</v>
+      </c>
+      <c r="AR99" s="44">
+        <f t="shared" si="164"/>
+        <v>3.5764744015990688</v>
+      </c>
       <c r="AS99" s="58"/>
       <c r="AU99" s="6"/>
     </row>
@@ -13970,22 +14688,145 @@
       <c r="A100" s="6"/>
       <c r="B100" s="57"/>
       <c r="C100" s="57"/>
-      <c r="D100" s="61"/>
+      <c r="D100" s="66"/>
       <c r="E100" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="16"/>
-      <c r="O100" s="17"/>
-      <c r="Y100" s="19"/>
-      <c r="Z100" s="19"/>
-      <c r="AA100" s="19"/>
-      <c r="AB100" s="19"/>
-      <c r="AC100" s="19"/>
-      <c r="AH100" s="42"/>
-      <c r="AI100" s="42"/>
-      <c r="AJ100" s="42"/>
-      <c r="AK100" s="42"/>
-      <c r="AL100" s="42"/>
+      <c r="F100" s="15">
+        <v>148857935337</v>
+      </c>
+      <c r="G100" s="15">
+        <v>154684929196</v>
+      </c>
+      <c r="H100" s="15">
+        <v>166371675360</v>
+      </c>
+      <c r="I100" s="15">
+        <v>10078148508</v>
+      </c>
+      <c r="J100" s="15">
+        <v>127093040665</v>
+      </c>
+      <c r="K100" s="15">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="15">
+        <v>18239010128</v>
+      </c>
+      <c r="M100" s="15">
+        <v>668000089</v>
+      </c>
+      <c r="N100" s="16">
+        <v>965</v>
+      </c>
+      <c r="O100" s="17">
+        <f t="shared" si="104"/>
+        <v>644620085885</v>
+      </c>
+      <c r="P100" s="15">
+        <v>302591131450</v>
+      </c>
+      <c r="Q100" s="15">
+        <f>-9303410092+13740744144</f>
+        <v>4437334052</v>
+      </c>
+      <c r="R100" s="15">
+        <v>-14500028420</v>
+      </c>
+      <c r="S100" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T100" s="18">
+        <f t="shared" si="177"/>
+        <v>0.89473123964699375</v>
+      </c>
+      <c r="U100" s="18">
+        <f t="shared" si="178"/>
+        <v>-4.7769294271859296E-2</v>
+      </c>
+      <c r="V100" s="18">
+        <f t="shared" si="179"/>
+        <v>-0.11408986946987999</v>
+      </c>
+      <c r="W100" s="18">
+        <f t="shared" si="180"/>
+        <v>0.58130117517164392</v>
+      </c>
+      <c r="X100" s="18">
+        <f t="shared" si="181"/>
+        <v>1.3883515804228634</v>
+      </c>
+      <c r="Y100" s="19">
+        <f t="shared" si="182"/>
+        <v>-5.769774904755165E-2</v>
+      </c>
+      <c r="Z100" s="19">
+        <f t="shared" si="183"/>
+        <v>6.0087098921138123E-2</v>
+      </c>
+      <c r="AA100" s="19">
+        <f t="shared" si="184"/>
+        <v>1.4618475907272036E-2</v>
+      </c>
+      <c r="AB100" s="19">
+        <f t="shared" si="185"/>
+        <v>3.653277015267709</v>
+      </c>
+      <c r="AC100" s="19">
+        <f t="shared" si="186"/>
+        <v>0.99686458423437418</v>
+      </c>
+      <c r="AD100" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE100" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF100" s="25">
+        <f t="shared" si="158"/>
+        <v>3.653277015267709</v>
+      </c>
+      <c r="AH100" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI100" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ100" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK100" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL100" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM100" s="44">
+        <f t="shared" si="159"/>
+        <v>-6.923729885706198E-2</v>
+      </c>
+      <c r="AN100" s="44">
+        <f t="shared" si="160"/>
+        <v>8.4121938489593373E-2</v>
+      </c>
+      <c r="AO100" s="44">
+        <f t="shared" si="161"/>
+        <v>4.8240970493997719E-2</v>
+      </c>
+      <c r="AP100" s="44">
+        <f t="shared" si="162"/>
+        <v>2.1919662091606251</v>
+      </c>
+      <c r="AQ100" s="44">
+        <f t="shared" si="163"/>
+        <v>0.99686458423437418</v>
+      </c>
+      <c r="AR100" s="44">
+        <f t="shared" si="164"/>
+        <v>3.2519564035215285</v>
+      </c>
       <c r="AS100" s="58"/>
       <c r="AU100" s="6"/>
     </row>
@@ -13993,22 +14834,145 @@
       <c r="A101" s="6"/>
       <c r="B101" s="57"/>
       <c r="C101" s="57"/>
-      <c r="D101" s="61"/>
+      <c r="D101" s="66"/>
       <c r="E101" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="16"/>
-      <c r="O101" s="17"/>
-      <c r="Y101" s="19"/>
-      <c r="Z101" s="19"/>
-      <c r="AA101" s="19"/>
-      <c r="AB101" s="19"/>
-      <c r="AC101" s="19"/>
-      <c r="AH101" s="42"/>
-      <c r="AI101" s="42"/>
-      <c r="AJ101" s="42"/>
-      <c r="AK101" s="42"/>
-      <c r="AL101" s="42"/>
+      <c r="F101" s="15">
+        <v>189670901662</v>
+      </c>
+      <c r="G101" s="15">
+        <v>141284367814</v>
+      </c>
+      <c r="H101" s="15">
+        <v>184166194553</v>
+      </c>
+      <c r="I101" s="15">
+        <v>28638378456</v>
+      </c>
+      <c r="J101" s="15">
+        <v>118150696467</v>
+      </c>
+      <c r="K101" s="15">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="15">
+        <v>9296665930</v>
+      </c>
+      <c r="M101" s="15">
+        <v>668000089</v>
+      </c>
+      <c r="N101" s="16">
+        <v>640</v>
+      </c>
+      <c r="O101" s="17">
+        <f t="shared" si="104"/>
+        <v>427520056960</v>
+      </c>
+      <c r="P101" s="15">
+        <v>412833362528</v>
+      </c>
+      <c r="Q101" s="15">
+        <f>-9303410092+13740744144</f>
+        <v>4437334052</v>
+      </c>
+      <c r="R101" s="15">
+        <v>-9041326115</v>
+      </c>
+      <c r="S101" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T101" s="18">
+        <f t="shared" si="177"/>
+        <v>1.0298898889796837</v>
+      </c>
+      <c r="U101" s="18">
+        <f t="shared" si="178"/>
+        <v>-2.7318876443076706E-2</v>
+      </c>
+      <c r="V101" s="18">
+        <f t="shared" si="179"/>
+        <v>-7.6523680226677979E-2</v>
+      </c>
+      <c r="W101" s="18">
+        <f t="shared" si="180"/>
+        <v>0.64300101142348487</v>
+      </c>
+      <c r="X101" s="18">
+        <f t="shared" si="181"/>
+        <v>1.8011283841093331</v>
+      </c>
+      <c r="Y101" s="19">
+        <f t="shared" si="182"/>
+        <v>1.6632782785769139E-2</v>
+      </c>
+      <c r="Z101" s="19">
+        <f t="shared" si="183"/>
+        <v>2.8090400085544399E-2</v>
+      </c>
+      <c r="AA101" s="19">
+        <f t="shared" si="184"/>
+        <v>1.3407654934836394E-2</v>
+      </c>
+      <c r="AB101" s="19">
+        <f t="shared" si="185"/>
+        <v>2.0089796516821994</v>
+      </c>
+      <c r="AC101" s="19">
+        <f t="shared" si="186"/>
+        <v>1.2473992729640995</v>
+      </c>
+      <c r="AD101" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE101" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF101" s="25">
+        <f t="shared" si="158"/>
+        <v>2.0089796516821994</v>
+      </c>
+      <c r="AH101" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI101" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ101" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK101" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL101" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM101" s="44">
+        <f t="shared" si="159"/>
+        <v>1.9959339342922967E-2</v>
+      </c>
+      <c r="AN101" s="44">
+        <f t="shared" si="160"/>
+        <v>3.9326560119762155E-2</v>
+      </c>
+      <c r="AO101" s="44">
+        <f t="shared" si="161"/>
+        <v>4.4245261284960098E-2</v>
+      </c>
+      <c r="AP101" s="44">
+        <f t="shared" si="162"/>
+        <v>1.2053877910093196</v>
+      </c>
+      <c r="AQ101" s="44">
+        <f t="shared" si="163"/>
+        <v>1.2473992729640995</v>
+      </c>
+      <c r="AR101" s="44">
+        <f t="shared" si="164"/>
+        <v>2.5563182247210641</v>
+      </c>
       <c r="AS101" s="58"/>
       <c r="AU101" s="6"/>
     </row>
@@ -14016,22 +14980,145 @@
       <c r="A102" s="6"/>
       <c r="B102" s="57"/>
       <c r="C102" s="57"/>
-      <c r="D102" s="61"/>
+      <c r="D102" s="66"/>
       <c r="E102" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N102" s="16"/>
-      <c r="O102" s="17"/>
-      <c r="Y102" s="19"/>
-      <c r="Z102" s="19"/>
-      <c r="AA102" s="19"/>
-      <c r="AB102" s="19"/>
-      <c r="AC102" s="19"/>
-      <c r="AH102" s="42"/>
-      <c r="AI102" s="42"/>
-      <c r="AJ102" s="42"/>
-      <c r="AK102" s="42"/>
-      <c r="AL102" s="42"/>
+      <c r="F102" s="15">
+        <v>146737666960</v>
+      </c>
+      <c r="G102" s="15">
+        <v>131498867811</v>
+      </c>
+      <c r="H102" s="15">
+        <v>94274141595</v>
+      </c>
+      <c r="I102" s="15">
+        <v>62613265286</v>
+      </c>
+      <c r="J102" s="15">
+        <v>121349127890</v>
+      </c>
+      <c r="K102" s="15">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="15">
+        <v>12495097353</v>
+      </c>
+      <c r="M102" s="15">
+        <v>668000089</v>
+      </c>
+      <c r="N102" s="16">
+        <v>550</v>
+      </c>
+      <c r="O102" s="17">
+        <f t="shared" si="104"/>
+        <v>367400048950</v>
+      </c>
+      <c r="P102" s="15">
+        <v>388118905159</v>
+      </c>
+      <c r="Q102" s="15">
+        <f>2899537143+11877990766</f>
+        <v>14777527909</v>
+      </c>
+      <c r="R102" s="15">
+        <v>3488737738</v>
+      </c>
+      <c r="S102" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T102" s="18">
+        <f t="shared" si="177"/>
+        <v>1.5564996347607423</v>
+      </c>
+      <c r="U102" s="18">
+        <f t="shared" si="178"/>
+        <v>1.2538747799139223E-2</v>
+      </c>
+      <c r="V102" s="18">
+        <f t="shared" si="179"/>
+        <v>2.8749590529916744E-2</v>
+      </c>
+      <c r="W102" s="18">
+        <f t="shared" si="180"/>
+        <v>0.5638634301211547</v>
+      </c>
+      <c r="X102" s="18">
+        <f t="shared" si="181"/>
+        <v>1.2928597807741526</v>
+      </c>
+      <c r="Y102" s="19">
+        <f t="shared" si="182"/>
+        <v>0.18855728421208098</v>
+      </c>
+      <c r="Z102" s="19">
+        <f t="shared" si="183"/>
+        <v>4.4908183475200245E-2</v>
+      </c>
+      <c r="AA102" s="19">
+        <f t="shared" si="184"/>
+        <v>5.3111385681835446E-2</v>
+      </c>
+      <c r="AB102" s="19">
+        <f t="shared" si="185"/>
+        <v>2.3418071357930916</v>
+      </c>
+      <c r="AC102" s="19">
+        <f t="shared" si="186"/>
+        <v>1.3949243059630456</v>
+      </c>
+      <c r="AD102" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE102" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF102" s="25">
+        <f t="shared" si="158"/>
+        <v>2.3418071357930916</v>
+      </c>
+      <c r="AH102" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI102" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ102" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK102" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL102" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM102" s="44">
+        <f t="shared" si="159"/>
+        <v>0.22626874105449718</v>
+      </c>
+      <c r="AN102" s="44">
+        <f t="shared" si="160"/>
+        <v>6.287145686528034E-2</v>
+      </c>
+      <c r="AO102" s="44">
+        <f t="shared" si="161"/>
+        <v>0.17526757275005697</v>
+      </c>
+      <c r="AP102" s="44">
+        <f t="shared" si="162"/>
+        <v>1.4050842814758548</v>
+      </c>
+      <c r="AQ102" s="44">
+        <f t="shared" si="163"/>
+        <v>1.3949243059630456</v>
+      </c>
+      <c r="AR102" s="44">
+        <f t="shared" si="164"/>
+        <v>3.2644163581087349</v>
+      </c>
       <c r="AS102" s="58"/>
       <c r="AU102" s="6"/>
     </row>
@@ -14039,22 +15126,145 @@
       <c r="A103" s="6"/>
       <c r="B103" s="57"/>
       <c r="C103" s="57"/>
-      <c r="D103" s="61"/>
+      <c r="D103" s="66"/>
       <c r="E103" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N103" s="16"/>
-      <c r="O103" s="17"/>
-      <c r="Y103" s="19"/>
-      <c r="Z103" s="19"/>
-      <c r="AA103" s="19"/>
-      <c r="AB103" s="19"/>
-      <c r="AC103" s="19"/>
-      <c r="AH103" s="42"/>
-      <c r="AI103" s="42"/>
-      <c r="AJ103" s="42"/>
-      <c r="AK103" s="42"/>
-      <c r="AL103" s="42"/>
+      <c r="F103" s="15">
+        <v>159992983032</v>
+      </c>
+      <c r="G103" s="15">
+        <v>115789189678</v>
+      </c>
+      <c r="H103" s="15">
+        <v>91457880845</v>
+      </c>
+      <c r="I103" s="15">
+        <v>53027867445</v>
+      </c>
+      <c r="J103" s="15">
+        <v>131296424420</v>
+      </c>
+      <c r="K103" s="15">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="15">
+        <v>22442393883</v>
+      </c>
+      <c r="M103" s="15">
+        <v>668000089</v>
+      </c>
+      <c r="N103" s="16">
+        <v>430</v>
+      </c>
+      <c r="O103" s="17">
+        <f t="shared" si="104"/>
+        <v>287240038270</v>
+      </c>
+      <c r="P103" s="15">
+        <v>303203668856</v>
+      </c>
+      <c r="Q103" s="15">
+        <f>10102793190+7611925724</f>
+        <v>17714718914</v>
+      </c>
+      <c r="R103" s="15">
+        <v>8334858402</v>
+      </c>
+      <c r="S103" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T103" s="18">
+        <f t="shared" si="177"/>
+        <v>1.7493624557423453</v>
+      </c>
+      <c r="U103" s="18">
+        <f t="shared" si="178"/>
+        <v>3.0222614899638775E-2</v>
+      </c>
+      <c r="V103" s="18">
+        <f t="shared" si="179"/>
+        <v>6.348122912576723E-2</v>
+      </c>
+      <c r="W103" s="18">
+        <f t="shared" si="180"/>
+        <v>0.52391257516828194</v>
+      </c>
+      <c r="X103" s="18">
+        <f t="shared" si="181"/>
+        <v>1.1004545548613653</v>
+      </c>
+      <c r="Y103" s="19">
+        <f t="shared" si="182"/>
+        <v>0.24851172036804714</v>
+      </c>
+      <c r="Z103" s="19">
+        <f t="shared" si="183"/>
+        <v>8.1377246623549532E-2</v>
+      </c>
+      <c r="AA103" s="19">
+        <f t="shared" si="184"/>
+        <v>6.4234459899726704E-2</v>
+      </c>
+      <c r="AB103" s="19">
+        <f t="shared" si="185"/>
+        <v>1.9880164076354108</v>
+      </c>
+      <c r="AC103" s="19">
+        <f t="shared" si="186"/>
+        <v>1.0994317213347768</v>
+      </c>
+      <c r="AD103" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE103" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF103" s="25">
+        <f t="shared" si="158"/>
+        <v>1.9880164076354108</v>
+      </c>
+      <c r="AH103" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI103" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ103" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK103" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL103" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM103" s="44">
+        <f t="shared" si="159"/>
+        <v>0.29821406444165655</v>
+      </c>
+      <c r="AN103" s="44">
+        <f t="shared" si="160"/>
+        <v>0.11392814527296934</v>
+      </c>
+      <c r="AO103" s="44">
+        <f t="shared" si="161"/>
+        <v>0.21197371766909812</v>
+      </c>
+      <c r="AP103" s="44">
+        <f t="shared" si="162"/>
+        <v>1.1928098445812465</v>
+      </c>
+      <c r="AQ103" s="44">
+        <f t="shared" si="163"/>
+        <v>1.0994317213347768</v>
+      </c>
+      <c r="AR103" s="44">
+        <f t="shared" si="164"/>
+        <v>2.9163574932997474</v>
+      </c>
       <c r="AS103" s="58"/>
       <c r="AU103" s="6"/>
     </row>
@@ -14062,28 +15272,147 @@
       <c r="A104" s="6"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
-      <c r="D104" s="61" t="s">
+      <c r="D104" s="66" t="s">
         <v>221</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F104" s="15">
+        <v>75443527</v>
+      </c>
+      <c r="G104" s="15">
+        <v>85037117</v>
+      </c>
+      <c r="H104" s="15">
+        <v>29107676</v>
+      </c>
+      <c r="I104" s="15">
+        <v>12895349</v>
+      </c>
+      <c r="J104" s="15">
+        <v>118477619</v>
+      </c>
       <c r="K104" s="15">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="N104" s="16"/>
-      <c r="O104" s="17"/>
-      <c r="Y104" s="19"/>
-      <c r="Z104" s="19"/>
-      <c r="AA104" s="19"/>
-      <c r="AB104" s="19"/>
-      <c r="AC104" s="19"/>
-      <c r="AH104" s="42"/>
-      <c r="AI104" s="42"/>
-      <c r="AJ104" s="42"/>
-      <c r="AK104" s="42"/>
-      <c r="AL104" s="42"/>
+      <c r="L104" s="15">
+        <v>66970535</v>
+      </c>
+      <c r="M104" s="15">
+        <v>800371500</v>
+      </c>
+      <c r="N104" s="16">
+        <v>5200</v>
+      </c>
+      <c r="O104" s="17">
+        <f t="shared" si="104"/>
+        <v>4161931800000</v>
+      </c>
+      <c r="P104" s="15">
+        <v>98485071</v>
+      </c>
+      <c r="Q104" s="15">
+        <f>-991378+721054+191561</f>
+        <v>-78763</v>
+      </c>
+      <c r="R104" s="15">
+        <v>-933521</v>
+      </c>
+      <c r="S104" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T104" s="18">
+        <f t="shared" ref="T99:T108" si="187">F104/H104</f>
+        <v>2.5918773796987433</v>
+      </c>
+      <c r="U104" s="18">
+        <f t="shared" ref="U99:U108" si="188">R104/(F104+G104)</f>
+        <v>-5.8170317412235707E-3</v>
+      </c>
+      <c r="V104" s="18">
+        <f t="shared" ref="V99:V108" si="189">R104/J104</f>
+        <v>-7.8793025035386634E-3</v>
+      </c>
+      <c r="W104" s="18">
+        <f t="shared" ref="W99:W108" si="190">(H104+I104)/(F104+G104)</f>
+        <v>0.26173265481162949</v>
+      </c>
+      <c r="X104" s="18">
+        <f t="shared" ref="X99:X108" si="191">(H104+I104)/J104</f>
+        <v>0.35452286562240926</v>
+      </c>
+      <c r="Y104" s="19">
+        <f t="shared" ref="Y104" si="192">(F104-H104)/(F104+G104)</f>
+        <v>0.28873171147044996</v>
+      </c>
+      <c r="Z104" s="19">
+        <f t="shared" ref="Z104" si="193">L104/(F104+G104)</f>
+        <v>0.41731222738612639</v>
+      </c>
+      <c r="AA104" s="19">
+        <f t="shared" ref="AA104" si="194">Q104/(F104+G104)</f>
+        <v>-4.9079439137843933E-4</v>
+      </c>
+      <c r="AB104" s="19">
+        <f t="shared" ref="AB104" si="195">(M104*N104)/(H104+I104)</f>
+        <v>99086.477700118034</v>
+      </c>
+      <c r="AC104" s="19">
+        <f t="shared" ref="AC104" si="196">P104/(F104+G104)</f>
+        <v>0.61368815917762642</v>
+      </c>
+      <c r="AD104" s="40">
+        <v>13369</v>
+      </c>
+      <c r="AE104" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF104" s="25">
+        <f>O104/($AD104*AE104*(H104+I104))</f>
+        <v>7.4116596379772632</v>
+      </c>
+      <c r="AH104" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI104" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ104" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK104" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL104" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM104" s="44">
+        <f t="shared" si="159"/>
+        <v>0.34647805376453994</v>
+      </c>
+      <c r="AN104" s="44">
+        <f t="shared" si="160"/>
+        <v>0.5842371183405769</v>
+      </c>
+      <c r="AO104" s="44">
+        <f t="shared" si="161"/>
+        <v>-1.6196214915488497E-3</v>
+      </c>
+      <c r="AP104" s="44">
+        <f t="shared" si="162"/>
+        <v>4.4469957827863578</v>
+      </c>
+      <c r="AQ104" s="44">
+        <f t="shared" si="163"/>
+        <v>0.61368815917762642</v>
+      </c>
+      <c r="AR104" s="44">
+        <f t="shared" si="164"/>
+        <v>5.9897794925775525</v>
+      </c>
       <c r="AS104" s="55"/>
       <c r="AU104" s="6"/>
     </row>
@@ -14091,26 +15420,145 @@
       <c r="A105" s="6"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
-      <c r="D105" s="61"/>
+      <c r="D105" s="66"/>
       <c r="E105" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="F105" s="15">
+        <v>82859435</v>
+      </c>
+      <c r="G105" s="15">
+        <v>66591517</v>
+      </c>
+      <c r="H105" s="15">
+        <v>33583628</v>
+      </c>
+      <c r="I105" s="15">
+        <v>10567585</v>
+      </c>
+      <c r="J105" s="15">
+        <v>105299739</v>
+      </c>
       <c r="K105" s="15">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="N105" s="16"/>
-      <c r="O105" s="17"/>
-      <c r="Y105" s="19"/>
-      <c r="Z105" s="19"/>
-      <c r="AA105" s="19"/>
-      <c r="AB105" s="19"/>
-      <c r="AC105" s="19"/>
-      <c r="AH105" s="42"/>
-      <c r="AI105" s="42"/>
-      <c r="AJ105" s="42"/>
-      <c r="AK105" s="42"/>
-      <c r="AL105" s="42"/>
+      <c r="L105" s="15">
+        <v>53705993</v>
+      </c>
+      <c r="M105" s="15">
+        <v>800371500</v>
+      </c>
+      <c r="N105" s="16">
+        <v>4850</v>
+      </c>
+      <c r="O105" s="17">
+        <f t="shared" si="104"/>
+        <v>3881801775000</v>
+      </c>
+      <c r="P105" s="15">
+        <v>49681160</v>
+      </c>
+      <c r="Q105" s="15">
+        <f>-15753937+365561+163551</f>
+        <v>-15224825</v>
+      </c>
+      <c r="R105" s="15">
+        <v>-12114563</v>
+      </c>
+      <c r="S105" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v>X</v>
+      </c>
+      <c r="T105" s="18">
+        <f t="shared" si="187"/>
+        <v>2.4672568133496475</v>
+      </c>
+      <c r="U105" s="18">
+        <f t="shared" si="188"/>
+        <v>-8.1060460558324179E-2</v>
+      </c>
+      <c r="V105" s="18">
+        <f t="shared" si="189"/>
+        <v>-0.11504836683403365</v>
+      </c>
+      <c r="W105" s="18">
+        <f t="shared" si="190"/>
+        <v>0.29542276184363148</v>
+      </c>
+      <c r="X105" s="18">
+        <f t="shared" si="191"/>
+        <v>0.4192908113475951</v>
+      </c>
+      <c r="Y105" s="19">
+        <f t="shared" ref="Y105:Y108" si="197">(F105-H105)/(F105+G105)</f>
+        <v>0.32971223227805202</v>
+      </c>
+      <c r="Z105" s="19">
+        <f t="shared" ref="Z105:Z108" si="198">L105/(F105+G105)</f>
+        <v>0.35935530875708305</v>
+      </c>
+      <c r="AA105" s="19">
+        <f t="shared" ref="AA105:AA108" si="199">Q105/(F105+G105)</f>
+        <v>-0.10187171641435915</v>
+      </c>
+      <c r="AB105" s="19">
+        <f t="shared" ref="AB105:AB108" si="200">(M105*N105)/(H105+I105)</f>
+        <v>87920.614434760835</v>
+      </c>
+      <c r="AC105" s="19">
+        <f t="shared" ref="AC105:AC108" si="201">P105/(F105+G105)</f>
+        <v>0.3324245134283253</v>
+      </c>
+      <c r="AD105" s="40">
+        <v>13480</v>
+      </c>
+      <c r="AE105" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF105" s="25">
+        <f>O105/($AD105*AE105*(H105+I105))</f>
+        <v>6.5223007740920496</v>
+      </c>
+      <c r="AH105" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI105" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ105" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK105" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL105" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM105" s="44">
+        <f t="shared" si="159"/>
+        <v>0.39565467873366239</v>
+      </c>
+      <c r="AN105" s="44">
+        <f t="shared" si="160"/>
+        <v>0.50309743225991621</v>
+      </c>
+      <c r="AO105" s="44">
+        <f t="shared" si="161"/>
+        <v>-0.33617666416738518</v>
+      </c>
+      <c r="AP105" s="44">
+        <f t="shared" si="162"/>
+        <v>3.9133804644552295</v>
+      </c>
+      <c r="AQ105" s="44">
+        <f t="shared" si="163"/>
+        <v>0.3324245134283253</v>
+      </c>
+      <c r="AR105" s="44">
+        <f t="shared" si="164"/>
+        <v>4.8083804247097479</v>
+      </c>
       <c r="AS105" s="55"/>
       <c r="AU105" s="6"/>
     </row>
@@ -14118,26 +15566,145 @@
       <c r="A106" s="6"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
-      <c r="D106" s="61"/>
+      <c r="D106" s="66"/>
       <c r="E106" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F106" s="15">
+        <v>90203603</v>
+      </c>
+      <c r="G106" s="15">
+        <v>65449714</v>
+      </c>
+      <c r="H106" s="15">
+        <v>49362169</v>
+      </c>
+      <c r="I106" s="15">
+        <v>7554895</v>
+      </c>
+      <c r="J106" s="15">
+        <v>98736253</v>
+      </c>
       <c r="K106" s="15">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="N106" s="16"/>
-      <c r="O106" s="17"/>
-      <c r="Y106" s="19"/>
-      <c r="Z106" s="19"/>
-      <c r="AA106" s="19"/>
-      <c r="AB106" s="19"/>
-      <c r="AC106" s="19"/>
-      <c r="AH106" s="42"/>
-      <c r="AI106" s="42"/>
-      <c r="AJ106" s="42"/>
-      <c r="AK106" s="42"/>
-      <c r="AL106" s="42"/>
+      <c r="L106" s="15">
+        <v>48451469</v>
+      </c>
+      <c r="M106" s="15">
+        <v>800371500</v>
+      </c>
+      <c r="N106" s="16">
+        <v>4300</v>
+      </c>
+      <c r="O106" s="17">
+        <f t="shared" si="104"/>
+        <v>3441597450000</v>
+      </c>
+      <c r="P106" s="15">
+        <v>85593299</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>-7453372+531489+103422</f>
+        <v>-6818461</v>
+      </c>
+      <c r="R106" s="15">
+        <v>-5794754</v>
+      </c>
+      <c r="S106" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v>X</v>
+      </c>
+      <c r="T106" s="18">
+        <f t="shared" si="187"/>
+        <v>1.8273832942794714</v>
+      </c>
+      <c r="U106" s="18">
+        <f t="shared" si="188"/>
+        <v>-3.7228593079066861E-2</v>
+      </c>
+      <c r="V106" s="18">
+        <f t="shared" si="189"/>
+        <v>-5.8689223298761396E-2</v>
+      </c>
+      <c r="W106" s="18">
+        <f t="shared" si="190"/>
+        <v>0.36566560287308236</v>
+      </c>
+      <c r="X106" s="18">
+        <f t="shared" si="191"/>
+        <v>0.57645558009984443</v>
+      </c>
+      <c r="Y106" s="19">
+        <f t="shared" si="197"/>
+        <v>0.26238717418402335</v>
+      </c>
+      <c r="Z106" s="19">
+        <f t="shared" si="198"/>
+        <v>0.31127810144900414</v>
+      </c>
+      <c r="AA106" s="19">
+        <f t="shared" si="199"/>
+        <v>-4.3805433327193409E-2</v>
+      </c>
+      <c r="AB106" s="19">
+        <f t="shared" si="200"/>
+        <v>60466.883007176897</v>
+      </c>
+      <c r="AC106" s="19">
+        <f t="shared" si="201"/>
+        <v>0.54989704459687161</v>
+      </c>
+      <c r="AD106" s="40">
+        <v>14409</v>
+      </c>
+      <c r="AE106" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF106" s="25">
+        <f t="shared" ref="AF106:AF108" si="202">O106/($AD106*AE106*(H106+I106))</f>
+        <v>4.1964663062791931</v>
+      </c>
+      <c r="AH106" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI106" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ106" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK106" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL106" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM106" s="44">
+        <f t="shared" si="159"/>
+        <v>0.31486460902082802</v>
+      </c>
+      <c r="AN106" s="44">
+        <f t="shared" si="160"/>
+        <v>0.43578934202860575</v>
+      </c>
+      <c r="AO106" s="44">
+        <f t="shared" si="161"/>
+        <v>-0.14455792997973824</v>
+      </c>
+      <c r="AP106" s="44">
+        <f t="shared" si="162"/>
+        <v>2.517879783767516</v>
+      </c>
+      <c r="AQ106" s="44">
+        <f t="shared" si="163"/>
+        <v>0.54989704459687161</v>
+      </c>
+      <c r="AR106" s="44">
+        <f t="shared" si="164"/>
+        <v>3.6738728494340833</v>
+      </c>
       <c r="AS106" s="55"/>
       <c r="AU106" s="6"/>
     </row>
@@ -14145,26 +15712,145 @@
       <c r="A107" s="6"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
-      <c r="D107" s="61"/>
+      <c r="D107" s="66"/>
       <c r="E107" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="F107" s="15">
+        <v>108804252</v>
+      </c>
+      <c r="G107" s="15">
+        <v>63517624</v>
+      </c>
+      <c r="H107" s="15">
+        <v>61320550</v>
+      </c>
+      <c r="I107" s="15">
+        <v>9551203</v>
+      </c>
+      <c r="J107" s="15">
+        <v>101450123</v>
+      </c>
       <c r="K107" s="15">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="N107" s="16"/>
-      <c r="O107" s="17"/>
-      <c r="Y107" s="19"/>
-      <c r="Z107" s="19"/>
-      <c r="AA107" s="19"/>
-      <c r="AB107" s="19"/>
-      <c r="AC107" s="19"/>
-      <c r="AH107" s="42"/>
-      <c r="AI107" s="42"/>
-      <c r="AJ107" s="42"/>
-      <c r="AK107" s="42"/>
-      <c r="AL107" s="42"/>
+      <c r="L107" s="15">
+        <v>49207907</v>
+      </c>
+      <c r="M107" s="15">
+        <v>800371500</v>
+      </c>
+      <c r="N107" s="16">
+        <v>3150</v>
+      </c>
+      <c r="O107" s="17">
+        <f t="shared" si="104"/>
+        <v>2521170225000</v>
+      </c>
+      <c r="P107" s="15">
+        <v>143559113</v>
+      </c>
+      <c r="Q107" s="15">
+        <f>3411871+562641</f>
+        <v>3974512</v>
+      </c>
+      <c r="R107" s="15">
+        <v>1645059</v>
+      </c>
+      <c r="S107" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T107" s="18">
+        <f t="shared" si="187"/>
+        <v>1.7743521869911474</v>
+      </c>
+      <c r="U107" s="18">
+        <f t="shared" si="188"/>
+        <v>9.5464315859699663E-3</v>
+      </c>
+      <c r="V107" s="18">
+        <f t="shared" si="189"/>
+        <v>1.621544608674353E-2</v>
+      </c>
+      <c r="W107" s="18">
+        <f t="shared" si="190"/>
+        <v>0.41127542622620938</v>
+      </c>
+      <c r="X107" s="18">
+        <f t="shared" si="191"/>
+        <v>0.69858715696185014</v>
+      </c>
+      <c r="Y107" s="19">
+        <f t="shared" si="197"/>
+        <v>0.27555237386111092</v>
+      </c>
+      <c r="Z107" s="19">
+        <f t="shared" si="198"/>
+        <v>0.28555809710428176</v>
+      </c>
+      <c r="AA107" s="19">
+        <f t="shared" si="199"/>
+        <v>2.306446570950748E-2</v>
+      </c>
+      <c r="AB107" s="19">
+        <f t="shared" si="200"/>
+        <v>35573.696406239593</v>
+      </c>
+      <c r="AC107" s="19">
+        <f t="shared" si="201"/>
+        <v>0.83308699006967635</v>
+      </c>
+      <c r="AD107" s="40">
+        <v>13831</v>
+      </c>
+      <c r="AE107" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF107" s="25">
+        <f t="shared" si="202"/>
+        <v>2.5720263470638125</v>
+      </c>
+      <c r="AH107" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI107" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ107" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK107" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL107" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM107" s="44">
+        <f t="shared" si="159"/>
+        <v>0.33066284863333312</v>
+      </c>
+      <c r="AN107" s="44">
+        <f t="shared" si="160"/>
+        <v>0.39978133594599446</v>
+      </c>
+      <c r="AO107" s="44">
+        <f t="shared" si="161"/>
+        <v>7.6112736841374679E-2</v>
+      </c>
+      <c r="AP107" s="44">
+        <f t="shared" si="162"/>
+        <v>1.5432158082382874</v>
+      </c>
+      <c r="AQ107" s="44">
+        <f t="shared" si="163"/>
+        <v>0.83308699006967635</v>
+      </c>
+      <c r="AR107" s="44">
+        <f t="shared" si="164"/>
+        <v>3.1828597197286661</v>
+      </c>
       <c r="AS107" s="55"/>
       <c r="AU107" s="6"/>
     </row>
@@ -14172,26 +15858,145 @@
       <c r="A108" s="6"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
-      <c r="D108" s="61"/>
+      <c r="D108" s="66"/>
       <c r="E108" s="6" t="s">
         <v>1</v>
+      </c>
+      <c r="F108" s="15">
+        <v>76157309</v>
+      </c>
+      <c r="G108" s="15">
+        <v>54287389</v>
+      </c>
+      <c r="H108" s="15">
+        <v>22765298</v>
+      </c>
+      <c r="I108" s="15">
+        <v>8333860</v>
+      </c>
+      <c r="J108" s="15">
+        <v>99345540</v>
       </c>
       <c r="K108" s="15">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="N108" s="16"/>
-      <c r="O108" s="17"/>
-      <c r="Y108" s="19"/>
-      <c r="Z108" s="19"/>
-      <c r="AA108" s="19"/>
-      <c r="AB108" s="19"/>
-      <c r="AC108" s="19"/>
-      <c r="AH108" s="42"/>
-      <c r="AI108" s="42"/>
-      <c r="AJ108" s="42"/>
-      <c r="AK108" s="42"/>
-      <c r="AL108" s="42"/>
+      <c r="L108" s="15">
+        <v>46686454</v>
+      </c>
+      <c r="M108" s="15">
+        <v>800371500</v>
+      </c>
+      <c r="N108" s="16">
+        <v>3220</v>
+      </c>
+      <c r="O108" s="17">
+        <f t="shared" si="104"/>
+        <v>2577196230000</v>
+      </c>
+      <c r="P108" s="15">
+        <v>126194837</v>
+      </c>
+      <c r="Q108" s="15">
+        <f>1628586+505744</f>
+        <v>2134330</v>
+      </c>
+      <c r="R108" s="15">
+        <v>-3057237</v>
+      </c>
+      <c r="S108" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="T108" s="18">
+        <f t="shared" si="187"/>
+        <v>3.3453244934461215</v>
+      </c>
+      <c r="U108" s="18">
+        <f t="shared" si="188"/>
+        <v>-2.3437035363445741E-2</v>
+      </c>
+      <c r="V108" s="18">
+        <f t="shared" si="189"/>
+        <v>-3.077377202841718E-2</v>
+      </c>
+      <c r="W108" s="18">
+        <f t="shared" si="190"/>
+        <v>0.23840875464328953</v>
+      </c>
+      <c r="X108" s="18">
+        <f t="shared" si="191"/>
+        <v>0.31304030357074913</v>
+      </c>
+      <c r="Y108" s="19">
+        <f t="shared" si="197"/>
+        <v>0.40930763625210737</v>
+      </c>
+      <c r="Z108" s="19">
+        <f t="shared" si="198"/>
+        <v>0.35790227365162824</v>
+      </c>
+      <c r="AA108" s="19">
+        <f t="shared" si="199"/>
+        <v>1.6361952863733872E-2</v>
+      </c>
+      <c r="AB108" s="19">
+        <f t="shared" si="200"/>
+        <v>82870.28960719773</v>
+      </c>
+      <c r="AC108" s="19">
+        <f t="shared" si="201"/>
+        <v>0.96742020898388681</v>
+      </c>
+      <c r="AD108" s="40">
+        <v>14034</v>
+      </c>
+      <c r="AE108" s="34">
+        <v>1</v>
+      </c>
+      <c r="AF108" s="25">
+        <f t="shared" si="202"/>
+        <v>5.9049657693599631</v>
+      </c>
+      <c r="AH108" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI108" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="AJ108" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="AK108" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="AL108" s="42">
+        <v>1</v>
+      </c>
+      <c r="AM108" s="44">
+        <f t="shared" si="159"/>
+        <v>0.49116916350252882</v>
+      </c>
+      <c r="AN108" s="44">
+        <f t="shared" si="160"/>
+        <v>0.50106318311227949</v>
+      </c>
+      <c r="AO108" s="44">
+        <f t="shared" si="161"/>
+        <v>5.3994444450321775E-2</v>
+      </c>
+      <c r="AP108" s="44">
+        <f t="shared" si="162"/>
+        <v>3.5429794616159778</v>
+      </c>
+      <c r="AQ108" s="44">
+        <f t="shared" si="163"/>
+        <v>0.96742020898388681</v>
+      </c>
+      <c r="AR108" s="44">
+        <f t="shared" si="164"/>
+        <v>5.5566264616649947</v>
+      </c>
       <c r="AS108" s="55"/>
       <c r="AU108" s="6"/>
     </row>
@@ -14199,9 +16004,9 @@
       <c r="A109" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B109" s="62"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="61" t="s">
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="66" t="s">
         <v>177</v>
       </c>
       <c r="E109" s="6" t="s">
@@ -14249,6 +16054,10 @@
       <c r="R109" s="15">
         <v>-1997038</v>
       </c>
+      <c r="S109" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="T109" s="18">
         <f t="shared" si="141"/>
         <v>0.6313506533163632</v>
@@ -14270,7 +16079,7 @@
         <v>39.485794842026699</v>
       </c>
       <c r="Y109" s="19">
-        <f t="shared" ref="Y89:Y112" si="150">((F109+G109)-(H109+I109))/(F109+G109)</f>
+        <f t="shared" ref="Y109:Y112" si="203">((F109+G109)-(H109+I109))/(F109+G109)</f>
         <v>2.4700021424846515E-2</v>
       </c>
       <c r="Z109" s="19">
@@ -14293,7 +16102,7 @@
         <v>1000000</v>
       </c>
       <c r="AF109" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>0.28331375126918334</v>
       </c>
       <c r="AH109" s="42">
@@ -14312,30 +16121,30 @@
         <v>1</v>
       </c>
       <c r="AM109" s="46">
-        <f t="shared" ref="AM109:AM118" si="151">AH109*Y109</f>
+        <f t="shared" ref="AM109:AM118" si="204">AH109*Y109</f>
         <v>2.9640025709815818E-2</v>
       </c>
       <c r="AN109" s="46">
-        <f t="shared" ref="AN109:AN118" si="152">AI109*Z109</f>
+        <f t="shared" ref="AN109:AN118" si="205">AI109*Z109</f>
         <v>-1.0474012644346318</v>
       </c>
       <c r="AO109" s="46">
-        <f t="shared" ref="AO109:AO118" si="153">AJ109*AA109</f>
+        <f t="shared" ref="AO109:AO118" si="206">AJ109*AA109</f>
         <v>-0.61479551561166701</v>
       </c>
       <c r="AP109" s="46">
-        <f t="shared" ref="AP109:AP118" si="154">AK109*AF109</f>
+        <f t="shared" ref="AP109:AP118" si="207">AK109*AF109</f>
         <v>0.16998825076151</v>
       </c>
       <c r="AQ109" s="46">
-        <f t="shared" ref="AQ109:AQ118" si="155">AL109*AC109</f>
+        <f t="shared" ref="AQ109:AQ118" si="208">AL109*AC109</f>
         <v>1.1739570544481954</v>
       </c>
       <c r="AR109" s="44">
-        <f t="shared" ref="AR109:AR118" si="156">AM109+AN109+AO109+AP109+AQ109</f>
+        <f t="shared" ref="AR109:AR118" si="209">AM109+AN109+AO109+AP109+AQ109</f>
         <v>-0.28861144912677772</v>
       </c>
-      <c r="AS109" s="66" t="s">
+      <c r="AS109" s="61" t="s">
         <v>177</v>
       </c>
       <c r="AT109" s="8" t="str">
@@ -14350,9 +16159,9 @@
       <c r="A110" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B110" s="62"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="61"/>
+      <c r="B110" s="63"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="66"/>
       <c r="E110" s="6" t="s">
         <v>4</v>
       </c>
@@ -14398,6 +16207,10 @@
       <c r="R110" s="15">
         <v>-2639420</v>
       </c>
+      <c r="S110" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="T110" s="18">
         <f t="shared" si="141"/>
         <v>0.27998539485793844</v>
@@ -14419,7 +16232,7 @@
         <v>-4.9353261187021751</v>
       </c>
       <c r="Y110" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="203"/>
         <v>-0.25410854649316544</v>
       </c>
       <c r="Z110" s="19">
@@ -14442,7 +16255,7 @@
         <v>1000000</v>
       </c>
       <c r="AF110" s="25">
-        <f t="shared" ref="AF110:AF118" si="157">AB110/AE110</f>
+        <f t="shared" ref="AF110:AF118" si="210">AB110/AE110</f>
         <v>0.23028412086948516</v>
       </c>
       <c r="AH110" s="42">
@@ -14461,30 +16274,30 @@
         <v>1</v>
       </c>
       <c r="AM110" s="46">
-        <f t="shared" si="151"/>
+        <f t="shared" si="204"/>
         <v>-0.3049302557917985</v>
       </c>
       <c r="AN110" s="46">
-        <f t="shared" si="152"/>
+        <f t="shared" si="205"/>
         <v>-1.6261185797828497</v>
       </c>
       <c r="AO110" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="206"/>
         <v>-1.0017092558167746</v>
       </c>
       <c r="AP110" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="207"/>
         <v>0.1381704725216911</v>
       </c>
       <c r="AQ110" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="208"/>
         <v>0.93847224254014916</v>
       </c>
       <c r="AR110" s="44">
-        <f t="shared" si="156"/>
+        <f t="shared" si="209"/>
         <v>-1.8561153763295826</v>
       </c>
-      <c r="AS110" s="66"/>
+      <c r="AS110" s="61"/>
       <c r="AT110" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -14497,9 +16310,9 @@
       <c r="A111" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B111" s="62"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="61"/>
+      <c r="B111" s="63"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="66"/>
       <c r="E111" s="6" t="s">
         <v>5</v>
       </c>
@@ -14545,6 +16358,10 @@
       <c r="R111" s="15">
         <v>1722704</v>
       </c>
+      <c r="S111" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="T111" s="18">
         <f t="shared" si="141"/>
         <v>0.61379524404315211</v>
@@ -14566,7 +16383,7 @@
         <v>8.7464346779013056</v>
       </c>
       <c r="Y111" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="203"/>
         <v>0.10260162131567577</v>
       </c>
       <c r="Z111" s="19">
@@ -14589,7 +16406,7 @@
         <v>1000000</v>
       </c>
       <c r="AF111" s="25">
-        <f t="shared" si="157"/>
+        <f t="shared" si="210"/>
         <v>0.50501358986635858</v>
       </c>
       <c r="AH111" s="42">
@@ -14608,30 +16425,30 @@
         <v>1</v>
       </c>
       <c r="AM111" s="46">
-        <f t="shared" si="151"/>
+        <f t="shared" si="204"/>
         <v>0.12312194557881091</v>
       </c>
       <c r="AN111" s="46">
-        <f t="shared" si="152"/>
+        <f t="shared" si="205"/>
         <v>-1.3583329783155114</v>
       </c>
       <c r="AO111" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="206"/>
         <v>1.1156295987487141</v>
       </c>
       <c r="AP111" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="207"/>
         <v>0.30300815391981512</v>
       </c>
       <c r="AQ111" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="208"/>
         <v>1.1244804060592413</v>
       </c>
       <c r="AR111" s="44">
-        <f t="shared" si="156"/>
+        <f t="shared" si="209"/>
         <v>1.30790712599107</v>
       </c>
-      <c r="AS111" s="66"/>
+      <c r="AS111" s="61"/>
       <c r="AT111" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -14644,9 +16461,9 @@
       <c r="A112" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B112" s="62"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="61"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="66"/>
       <c r="E112" s="6" t="s">
         <v>2</v>
       </c>
@@ -14692,6 +16509,10 @@
       <c r="R112" s="15">
         <v>-348863</v>
       </c>
+      <c r="S112" s="1" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="T112" s="18">
         <f t="shared" si="141"/>
         <v>0.31009883869214261</v>
@@ -14713,7 +16534,7 @@
         <v>17.21063637356901</v>
       </c>
       <c r="Y112" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="203"/>
         <v>5.4912962923767121E-2</v>
       </c>
       <c r="Z112" s="19">
@@ -14736,7 +16557,7 @@
         <v>1000000</v>
       </c>
       <c r="AF112" s="25">
-        <f t="shared" si="157"/>
+        <f t="shared" si="210"/>
         <v>0.52525860070604202</v>
       </c>
       <c r="AH112" s="42">
@@ -14755,30 +16576,30 @@
         <v>1</v>
       </c>
       <c r="AM112" s="46">
-        <f t="shared" si="151"/>
+        <f t="shared" si="204"/>
         <v>6.589555550852054E-2</v>
       </c>
       <c r="AN112" s="46">
-        <f t="shared" si="152"/>
+        <f t="shared" si="205"/>
         <v>-1.5715191960880353</v>
       </c>
       <c r="AO112" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="206"/>
         <v>2.4307300734851611E-2</v>
       </c>
       <c r="AP112" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="207"/>
         <v>0.31515516042362518</v>
       </c>
       <c r="AQ112" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="208"/>
         <v>1.1959090432596327</v>
       </c>
       <c r="AR112" s="44">
-        <f t="shared" si="156"/>
+        <f t="shared" si="209"/>
         <v>2.9747863838594624E-2</v>
       </c>
-      <c r="AS112" s="66"/>
+      <c r="AS112" s="61"/>
       <c r="AT112" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -14791,9 +16612,9 @@
       <c r="A113" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="61"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="66"/>
       <c r="E113" s="6" t="s">
         <v>1</v>
       </c>
@@ -14832,30 +16653,30 @@
         <v>1</v>
       </c>
       <c r="AM113" s="46">
-        <f t="shared" si="151"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="AN113" s="46">
-        <f t="shared" si="152"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="AO113" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="AP113" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="AQ113" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="AR113" s="44">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AS113" s="66"/>
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+      <c r="AS113" s="61"/>
       <c r="AT113" s="8" t="str">
         <f t="shared" si="36"/>
         <v>financial distress</v>
@@ -14868,9 +16689,9 @@
       <c r="A114" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B114" s="62"/>
-      <c r="C114" s="62"/>
-      <c r="D114" s="61" t="s">
+      <c r="B114" s="63"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="66" t="s">
         <v>175</v>
       </c>
       <c r="E114" s="6" t="s">
@@ -14919,54 +16740,54 @@
         <v>-68488774415</v>
       </c>
       <c r="S114" s="1" t="str">
-        <f t="shared" ref="S114:S117" si="158">IF(Q114&gt;R114,"","X")</f>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="T114" s="18">
-        <f t="shared" ref="T114:T117" si="159">F114/H114</f>
+        <f t="shared" ref="T114:T117" si="211">F114/H114</f>
         <v>0.48594343095272746</v>
       </c>
       <c r="U114" s="18">
-        <f t="shared" ref="U114:U117" si="160">R114/(F114+G114)</f>
+        <f t="shared" ref="U114:U117" si="212">R114/(F114+G114)</f>
         <v>-5.9096274311344552E-2</v>
       </c>
       <c r="V114" s="18">
-        <f t="shared" ref="V114:V117" si="161">R114/J114</f>
+        <f t="shared" ref="V114:V117" si="213">R114/J114</f>
         <v>-9.6440419052268744</v>
       </c>
       <c r="W114" s="18">
-        <f t="shared" ref="W114:W117" si="162">(H114+I114)/(F114+G114)</f>
+        <f t="shared" ref="W114:W117" si="214">(H114+I114)/(F114+G114)</f>
         <v>0.99387225036016114</v>
       </c>
       <c r="X114" s="18">
-        <f t="shared" ref="X114:X117" si="163">(H114+I114)/J114</f>
+        <f t="shared" ref="X114:X117" si="215">(H114+I114)/J114</f>
         <v>162.19204582031554</v>
       </c>
       <c r="Y114" s="19">
-        <f t="shared" ref="Y114:Y117" si="164">((F114+G114)-(H114+I114))/(F114+G114)</f>
+        <f t="shared" ref="Y114:Y117" si="216">((F114+G114)-(H114+I114))/(F114+G114)</f>
         <v>6.1277496398388278E-3</v>
       </c>
       <c r="Z114" s="19">
-        <f t="shared" ref="Z114:Z117" si="165">L114/(F114+G114)</f>
+        <f t="shared" ref="Z114:Z117" si="217">L114/(F114+G114)</f>
         <v>-0.34560002687867247</v>
       </c>
       <c r="AA114" s="19">
-        <f t="shared" ref="AA114:AA117" si="166">Q114/(F114+G114)</f>
+        <f t="shared" ref="AA114:AA117" si="218">Q114/(F114+G114)</f>
         <v>-2.2028645841133669E-2</v>
       </c>
       <c r="AB114" s="19">
-        <f t="shared" ref="AB114:AB117" si="167">(M114*N114)/(H114+I114)</f>
+        <f t="shared" ref="AB114:AB117" si="219">(M114*N114)/(H114+I114)</f>
         <v>6.8933857324264353E-2</v>
       </c>
       <c r="AC114" s="19">
-        <f t="shared" ref="AC114:AC117" si="168">P114/(F114+G114)</f>
+        <f t="shared" ref="AC114:AC117" si="220">P114/(F114+G114)</f>
         <v>0.20968705092914147</v>
       </c>
       <c r="AE114" s="34">
         <v>1</v>
       </c>
       <c r="AF114" s="25">
-        <f t="shared" si="157"/>
+        <f t="shared" si="210"/>
         <v>6.8933857324264353E-2</v>
       </c>
       <c r="AH114" s="42">
@@ -14985,30 +16806,30 @@
         <v>1</v>
       </c>
       <c r="AM114" s="46">
-        <f t="shared" si="151"/>
+        <f t="shared" si="204"/>
         <v>7.3532995678065932E-3</v>
       </c>
       <c r="AN114" s="46">
-        <f t="shared" si="152"/>
+        <f t="shared" si="205"/>
         <v>-0.48384003763014144</v>
       </c>
       <c r="AO114" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="206"/>
         <v>-7.2694531275741103E-2</v>
       </c>
       <c r="AP114" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="207"/>
         <v>4.136031439455861E-2</v>
       </c>
       <c r="AQ114" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="208"/>
         <v>0.20968705092914147</v>
       </c>
       <c r="AR114" s="44">
-        <f t="shared" si="156"/>
+        <f t="shared" si="209"/>
         <v>-0.29813390401437595</v>
       </c>
-      <c r="AS114" s="66" t="s">
+      <c r="AS114" s="61" t="s">
         <v>175</v>
       </c>
       <c r="AT114" s="8" t="str">
@@ -15023,9 +16844,9 @@
       <c r="A115" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B115" s="62"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="61"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="66"/>
       <c r="E115" s="6" t="s">
         <v>4</v>
       </c>
@@ -15072,54 +16893,54 @@
         <v>-127520042125</v>
       </c>
       <c r="S115" s="1" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="T115" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="211"/>
         <v>0.13270513826220781</v>
       </c>
       <c r="U115" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="212"/>
         <v>-0.11441202034609714</v>
       </c>
       <c r="V115" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="213"/>
         <v>1.0512366344266781</v>
       </c>
       <c r="W115" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="214"/>
         <v>1.1088356480351305</v>
       </c>
       <c r="X115" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="215"/>
         <v>-10.188165992058178</v>
       </c>
       <c r="Y115" s="19">
-        <f t="shared" si="164"/>
+        <f t="shared" si="216"/>
         <v>-0.10883564803513056</v>
       </c>
       <c r="Z115" s="19">
-        <f t="shared" si="165"/>
+        <f t="shared" si="217"/>
         <v>-0.47440066709763934</v>
       </c>
       <c r="AA115" s="19">
-        <f t="shared" si="166"/>
+        <f t="shared" si="218"/>
         <v>-4.7905295533431071E-2</v>
       </c>
       <c r="AB115" s="19">
-        <f t="shared" si="167"/>
+        <f t="shared" si="219"/>
         <v>4.9360001390480135E-2</v>
       </c>
       <c r="AC115" s="19">
-        <f t="shared" si="168"/>
+        <f t="shared" si="220"/>
         <v>4.635968795356904E-2</v>
       </c>
       <c r="AE115" s="34">
         <v>1</v>
       </c>
       <c r="AF115" s="25">
-        <f t="shared" si="157"/>
+        <f t="shared" si="210"/>
         <v>4.9360001390480135E-2</v>
       </c>
       <c r="AH115" s="42">
@@ -15138,32 +16959,32 @@
         <v>1</v>
       </c>
       <c r="AM115" s="46">
-        <f t="shared" si="151"/>
+        <f t="shared" si="204"/>
         <v>-0.13060277764215666</v>
       </c>
       <c r="AN115" s="46">
-        <f t="shared" si="152"/>
+        <f t="shared" si="205"/>
         <v>-0.66416093393669506</v>
       </c>
       <c r="AO115" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="206"/>
         <v>-0.15808747526032252</v>
       </c>
       <c r="AP115" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="207"/>
         <v>2.961600083428808E-2</v>
       </c>
       <c r="AQ115" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="208"/>
         <v>4.635968795356904E-2</v>
       </c>
       <c r="AR115" s="44">
-        <f t="shared" si="156"/>
+        <f t="shared" si="209"/>
         <v>-0.87687549805131715</v>
       </c>
-      <c r="AS115" s="66"/>
+      <c r="AS115" s="61"/>
       <c r="AT115" s="8" t="str">
-        <f t="shared" ref="AT115:AT118" si="169">IF(AR115&lt;1.8,"financial distress",IF(AR115&gt;2.9,"safe","grey area"))</f>
+        <f t="shared" ref="AT115:AT118" si="221">IF(AR115&lt;1.8,"financial distress",IF(AR115&gt;2.9,"safe","grey area"))</f>
         <v>financial distress</v>
       </c>
       <c r="AU115" s="6" t="s">
@@ -15174,9 +16995,9 @@
       <c r="A116" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="61"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="66"/>
       <c r="E116" s="6" t="s">
         <v>5</v>
       </c>
@@ -15223,54 +17044,54 @@
         <v>-138704828271</v>
       </c>
       <c r="S116" s="1" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="T116" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="211"/>
         <v>2.4222172873049157E-2</v>
       </c>
       <c r="U116" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="212"/>
         <v>-0.12688731085040147</v>
       </c>
       <c r="V116" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="213"/>
         <v>0.53976547583044898</v>
       </c>
       <c r="W116" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="214"/>
         <v>1.2350785971540337</v>
       </c>
       <c r="X116" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="215"/>
         <v>-5.2538964078671793</v>
       </c>
       <c r="Y116" s="19">
-        <f t="shared" si="164"/>
+        <f t="shared" si="216"/>
         <v>-0.23507859715403376</v>
       </c>
       <c r="Z116" s="19">
-        <f t="shared" si="165"/>
+        <f t="shared" si="217"/>
         <v>-0.60747293970522453</v>
       </c>
       <c r="AA116" s="19">
-        <f t="shared" si="166"/>
+        <f t="shared" si="218"/>
         <v>-4.8217410697594373E-2</v>
       </c>
       <c r="AB116" s="19">
-        <f t="shared" si="167"/>
+        <f t="shared" si="219"/>
         <v>5.8093243337907982E-2</v>
       </c>
       <c r="AC116" s="19">
-        <f t="shared" si="168"/>
+        <f t="shared" si="220"/>
         <v>2.1873536633969723E-2</v>
       </c>
       <c r="AE116" s="34">
         <v>1</v>
       </c>
       <c r="AF116" s="25">
-        <f t="shared" si="157"/>
+        <f t="shared" si="210"/>
         <v>5.8093243337907982E-2</v>
       </c>
       <c r="AH116" s="42">
@@ -15289,32 +17110,32 @@
         <v>1</v>
       </c>
       <c r="AM116" s="46">
-        <f t="shared" si="151"/>
+        <f t="shared" si="204"/>
         <v>-0.28209431658484052</v>
       </c>
       <c r="AN116" s="46">
-        <f t="shared" si="152"/>
+        <f t="shared" si="205"/>
         <v>-0.85046211558731433</v>
       </c>
       <c r="AO116" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="206"/>
         <v>-0.15911745530206142</v>
       </c>
       <c r="AP116" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="207"/>
         <v>3.4855946002744789E-2</v>
       </c>
       <c r="AQ116" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="208"/>
         <v>2.1873536633969723E-2</v>
       </c>
       <c r="AR116" s="44">
-        <f t="shared" si="156"/>
+        <f t="shared" si="209"/>
         <v>-1.2349444048375016</v>
       </c>
-      <c r="AS116" s="66"/>
+      <c r="AS116" s="61"/>
       <c r="AT116" s="8" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="221"/>
         <v>financial distress</v>
       </c>
       <c r="AU116" s="6" t="s">
@@ -15325,9 +17146,9 @@
       <c r="A117" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B117" s="62"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="61"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="66"/>
       <c r="E117" s="6" t="s">
         <v>2</v>
       </c>
@@ -15374,54 +17195,54 @@
         <v>-89485479839</v>
       </c>
       <c r="S117" s="1" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="T117" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="211"/>
         <v>5.7853977621871722E-2</v>
       </c>
       <c r="U117" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="212"/>
         <v>-7.9625764949521061E-2</v>
       </c>
       <c r="V117" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="213"/>
         <v>0.2586503277566598</v>
       </c>
       <c r="W117" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="214"/>
         <v>1.3078510112093638</v>
       </c>
       <c r="X117" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="215"/>
         <v>-4.2483245582712055</v>
       </c>
       <c r="Y117" s="19">
-        <f t="shared" si="164"/>
+        <f t="shared" si="216"/>
         <v>-0.30785101120936365</v>
       </c>
       <c r="Z117" s="19">
-        <f t="shared" si="165"/>
+        <f t="shared" si="217"/>
         <v>-0.67008327649581967</v>
       </c>
       <c r="AA117" s="19">
-        <f t="shared" si="166"/>
+        <f t="shared" si="218"/>
         <v>-3.7842144839878702E-2</v>
       </c>
       <c r="AB117" s="19">
-        <f t="shared" si="167"/>
+        <f t="shared" si="219"/>
         <v>4.2162983467903696E-2</v>
       </c>
       <c r="AC117" s="19">
-        <f t="shared" si="168"/>
+        <f t="shared" si="220"/>
         <v>0.19937864746845277</v>
       </c>
       <c r="AE117" s="34">
         <v>1</v>
       </c>
       <c r="AF117" s="25">
-        <f t="shared" si="157"/>
+        <f t="shared" si="210"/>
         <v>4.2162983467903696E-2</v>
       </c>
       <c r="AH117" s="42">
@@ -15440,32 +17261,32 @@
         <v>1</v>
       </c>
       <c r="AM117" s="46">
-        <f t="shared" si="151"/>
+        <f t="shared" si="204"/>
         <v>-0.36942121345123635</v>
       </c>
       <c r="AN117" s="46">
-        <f t="shared" si="152"/>
+        <f t="shared" si="205"/>
         <v>-0.93811658709414747</v>
       </c>
       <c r="AO117" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="206"/>
         <v>-0.12487907797159971</v>
       </c>
       <c r="AP117" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="207"/>
         <v>2.5297790080742216E-2</v>
       </c>
       <c r="AQ117" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="208"/>
         <v>0.19937864746845277</v>
       </c>
       <c r="AR117" s="44">
-        <f t="shared" si="156"/>
+        <f t="shared" si="209"/>
         <v>-1.2077404409677885</v>
       </c>
-      <c r="AS117" s="66"/>
+      <c r="AS117" s="61"/>
       <c r="AT117" s="8" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="221"/>
         <v>financial distress</v>
       </c>
       <c r="AU117" s="6" t="s">
@@ -15476,9 +17297,9 @@
       <c r="A118" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B118" s="62"/>
-      <c r="C118" s="62"/>
-      <c r="D118" s="61"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="66"/>
       <c r="E118" s="6" t="s">
         <v>1</v>
       </c>
@@ -15502,7 +17323,7 @@
         <v>1</v>
       </c>
       <c r="AF118" s="25">
-        <f t="shared" si="157"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="AH118" s="42">
@@ -15521,32 +17342,32 @@
         <v>1</v>
       </c>
       <c r="AM118" s="46">
-        <f t="shared" si="151"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="AN118" s="46">
-        <f t="shared" si="152"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="AO118" s="46">
-        <f t="shared" si="153"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="AP118" s="46">
-        <f t="shared" si="154"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="AQ118" s="46">
-        <f t="shared" si="155"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="AR118" s="44">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AS118" s="66"/>
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+      <c r="AS118" s="61"/>
       <c r="AT118" s="8" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="221"/>
         <v>financial distress</v>
       </c>
       <c r="AU118" s="6" t="s">
@@ -15555,61 +17376,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AS109:AS113"/>
-    <mergeCell ref="AS114:AS118"/>
-    <mergeCell ref="AS34:AS38"/>
-    <mergeCell ref="AS39:AS43"/>
-    <mergeCell ref="AS44:AS48"/>
-    <mergeCell ref="AS49:AS53"/>
-    <mergeCell ref="AS54:AS58"/>
-    <mergeCell ref="AS59:AS63"/>
-    <mergeCell ref="AS64:AS68"/>
-    <mergeCell ref="AS69:AS73"/>
-    <mergeCell ref="AS74:AS78"/>
-    <mergeCell ref="AS79:AS83"/>
-    <mergeCell ref="AS84:AS88"/>
-    <mergeCell ref="AS89:AS93"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B74:B78"/>
     <mergeCell ref="D114:D118"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="C34:C38"/>
@@ -15626,6 +17392,61 @@
     <mergeCell ref="C69:C73"/>
     <mergeCell ref="C114:C118"/>
     <mergeCell ref="C79:C83"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="AS109:AS113"/>
+    <mergeCell ref="AS114:AS118"/>
+    <mergeCell ref="AS34:AS38"/>
+    <mergeCell ref="AS39:AS43"/>
+    <mergeCell ref="AS44:AS48"/>
+    <mergeCell ref="AS49:AS53"/>
+    <mergeCell ref="AS54:AS58"/>
+    <mergeCell ref="AS59:AS63"/>
+    <mergeCell ref="AS64:AS68"/>
+    <mergeCell ref="AS69:AS73"/>
+    <mergeCell ref="AS74:AS78"/>
+    <mergeCell ref="AS79:AS83"/>
+    <mergeCell ref="AS84:AS88"/>
+    <mergeCell ref="AS89:AS93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
